--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E7BF97-2527-4B90-AEAB-A0451A80F145}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D738BA46-CD80-43BF-9BBA-78E4C50A999F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
   <sheets>
     <sheet name="SEGUIMIENTO" sheetId="6" r:id="rId1"/>
@@ -3180,19 +3180,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BI130"/>
+  <dimension ref="A1:BI123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
@@ -3291,7 +3291,7 @@
       <c r="BH1" s="3"/>
       <c r="BI1" s="3"/>
     </row>
-    <row r="2" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>284</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>284</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>284</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>284</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>284</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>284</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>284</v>
       </c>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>284</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>284</v>
       </c>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:61" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>284</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>284</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>284</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>284</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
         <v>284</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:61" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>284</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>284</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>284</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>284</v>
       </c>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
         <v>284</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>284</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>284</v>
       </c>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>284</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>284</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
         <v>284</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
         <v>284</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
         <v>284</v>
       </c>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
         <v>284</v>
       </c>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>284</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
         <v>284</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
         <v>284</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
         <v>284</v>
       </c>
@@ -4164,7 +4164,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>284</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>284</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
         <v>284</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
         <v>284</v>
       </c>
@@ -4292,7 +4292,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>284</v>
       </c>
@@ -4317,7 +4317,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
         <v>284</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>284</v>
       </c>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
         <v>284</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
         <v>284</v>
       </c>
@@ -4423,7 +4423,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A45" s="60" t="s">
         <v>284</v>
       </c>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
         <v>284</v>
       </c>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
         <v>284</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
         <v>284</v>
       </c>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60" t="s">
         <v>284</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="60" t="s">
         <v>284</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" s="60" t="s">
         <v>284</v>
       </c>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A52" s="60" t="s">
         <v>284</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="J52" s="28"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>249</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="J53" s="28"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
         <v>258</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="J54" s="28"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
         <v>258</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="J55" s="28"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A56" s="60" t="s">
         <v>258</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="J56" s="28"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A57" s="60" t="s">
         <v>258</v>
       </c>
@@ -4749,7 +4749,7 @@
       <c r="J57" s="28"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>250</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="J58" s="28"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A59" s="60" t="s">
         <v>258</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="J59" s="28"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A60" s="60" t="s">
         <v>258</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="J60" s="28"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A61" s="60" t="s">
         <v>276</v>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="J61" s="28"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>282</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A63" s="67" t="s">
         <v>248</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="J63" s="28"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
         <v>249</v>
       </c>
@@ -4916,7 +4916,7 @@
       <c r="J64" s="28"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>249</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="J65" s="28"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
         <v>249</v>
       </c>
@@ -4970,7 +4970,7 @@
       <c r="J66" s="28"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>251</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="J67" s="28"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A68" s="64" t="s">
         <v>252</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="J68" s="28"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A69" s="64" t="s">
         <v>252</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="J69" s="28"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
         <v>253</v>
       </c>
@@ -5074,7 +5074,7 @@
       <c r="J70" s="28"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
         <v>254</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="J71" s="28"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="s">
         <v>255</v>
       </c>
@@ -5124,7 +5124,7 @@
       <c r="J72" s="28"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A73" s="60" t="s">
         <v>255</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="J73" s="28"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A74" s="60" t="s">
         <v>255</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="J74" s="28"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60" t="s">
         <v>255</v>
       </c>
@@ -5197,7 +5197,7 @@
       <c r="J75" s="28"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A76" s="60" t="s">
         <v>255</v>
       </c>
@@ -5222,7 +5222,7 @@
       <c r="J76" s="28"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A77" s="60" t="s">
         <v>255</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="J77" s="28"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A78" s="60" t="s">
         <v>255</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="J78" s="28"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A79" s="60" t="s">
         <v>255</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="J79" s="28"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A80" s="60" t="s">
         <v>256</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="J80" s="28"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A81" s="60" t="s">
         <v>257</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="J81" s="28"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
         <v>257</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="J82" s="28"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
         <v>259</v>
       </c>
@@ -5399,7 +5399,7 @@
       <c r="J83" s="28"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
         <v>258</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="J84" s="28"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
         <v>260</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="J85" s="28"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A86" s="60" t="s">
         <v>261</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="J86" s="28"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
         <v>262</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="J87" s="28"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A88" s="52" t="s">
         <v>445</v>
       </c>
@@ -5524,7 +5524,7 @@
       <c r="J88" s="28"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A89" s="60" t="s">
         <v>263</v>
       </c>
@@ -5549,7 +5549,7 @@
       <c r="J89" s="28"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A90" s="60" t="s">
         <v>264</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="J91" s="28"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>267</v>
       </c>
@@ -5626,7 +5626,7 @@
       <c r="J92" s="28"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>265</v>
       </c>
@@ -5651,7 +5651,7 @@
       <c r="J93" s="28"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A94" s="64" t="s">
         <v>268</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="J94" s="28"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A95" s="64" t="s">
         <v>268</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="J95" s="28"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A96" s="64" t="s">
         <v>268</v>
       </c>
@@ -5730,7 +5730,7 @@
       <c r="J96" s="28"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>269</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="J97" s="28"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
         <v>269</v>
       </c>
@@ -5784,7 +5784,7 @@
       <c r="J98" s="28"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A99" s="64" t="s">
         <v>269</v>
       </c>
@@ -5809,7 +5809,7 @@
       <c r="J99" s="28"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A100" s="60" t="s">
         <v>270</v>
       </c>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A101" s="60" t="s">
         <v>270</v>
       </c>
@@ -5861,7 +5861,7 @@
       <c r="J101" s="28"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A102" s="60" t="s">
         <v>271</v>
       </c>
@@ -5886,7 +5886,7 @@
       <c r="J102" s="28"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A103" s="60" t="s">
         <v>271</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="J103" s="28"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A104" s="60" t="s">
         <v>272</v>
       </c>
@@ -5936,7 +5936,7 @@
       <c r="J104" s="28"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A105" s="60" t="s">
         <v>272</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="J105" s="28"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A106" s="60" t="s">
         <v>273</v>
       </c>
@@ -5990,7 +5990,7 @@
       <c r="J106" s="28"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
         <v>274</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="J107" s="28"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
         <v>274</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="J108" s="28"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A109" s="60" t="s">
         <v>275</v>
       </c>
@@ -6069,7 +6069,7 @@
       <c r="J109" s="28"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A110" s="60" t="s">
         <v>276</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="J110" s="28"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.3">
       <c r="A111" s="60" t="s">
         <v>277</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="J111" s="28"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A112" s="60" t="s">
         <v>278</v>
       </c>
@@ -6148,7 +6148,7 @@
       <c r="J112" s="28"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="60" t="s">
         <v>278</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="J113" s="28"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>280</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="J114" s="28"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>280</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="J115" s="28"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
         <v>280</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="J116" s="28"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A117" s="69" t="s">
         <v>281</v>
       </c>
@@ -6453,20 +6453,8 @@
       <c r="J123" s="28"/>
       <c r="K123" s="8"/>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:BI130" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DESCUBIERTO"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:BI130">
       <sortCondition ref="D1:D130"/>
     </sortState>

--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD2573D-6479-4F1B-89DA-BD824ADF47AF}"/>
+  <xr:revisionPtr revIDLastSave="477" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C346E7-BF13-41BB-BAEE-8432811366AF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
   <sheets>
     <sheet name="SEGUIMIENTO" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEGUIMIENTO!$A$1:$AA$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEGUIMIENTO!$A$1:$AA$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="464">
   <si>
     <t>SVO08017-P1-C018</t>
   </si>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>MIRIAM CORONAS MONELL</t>
-  </si>
-  <si>
-    <t>KEN ARNOL RIOS PINEDO</t>
   </si>
   <si>
     <t>TIENDA 118 - Montcunill-la florida</t>
@@ -2016,6 +2013,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2026,6 +2043,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2046,6 +2073,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2066,6 +2103,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2076,6 +2133,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2086,6 +2163,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2096,6 +2183,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2116,6 +2213,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2126,6 +2233,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2166,6 +2293,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2186,6 +2323,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2196,6 +2353,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2206,6 +2383,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2216,6 +2413,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2226,6 +2433,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2236,6 +2463,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2296,6 +2543,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2316,6 +2573,36 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2376,6 +2663,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2386,6 +2683,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2406,6 +2723,36 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
@@ -2416,6 +2763,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2426,6 +2783,26 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2436,387 +2813,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3185,33 +3182,33 @@
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J126" sqref="B117:J126"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.453125" customWidth="1"/>
-    <col min="9" max="9" width="49.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.54296875" style="20" customWidth="1"/>
-    <col min="12" max="27" width="11.453125" style="6"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="20" customWidth="1"/>
+    <col min="12" max="27" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
@@ -3223,22 +3220,22 @@
         <v>9</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -3257,18 +3254,18 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>80</v>
@@ -3277,14 +3274,14 @@
       <c r="G2" s="4"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>53</v>
@@ -3293,52 +3290,52 @@
         <v>54</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="4"/>
       <c r="H3" s="19"/>
       <c r="I3" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>74</v>
@@ -3347,7 +3344,7 @@
         <v>75</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>76</v>
@@ -3356,68 +3353,68 @@
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>153</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>154</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="4"/>
       <c r="H6" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>29</v>
@@ -3426,7 +3423,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>28</v>
@@ -3437,16 +3434,16 @@
         <v>50</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>64</v>
@@ -3455,7 +3452,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>66</v>
@@ -3463,17 +3460,17 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>37</v>
@@ -3481,26 +3478,28 @@
       <c r="C10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>144</v>
+      <c r="D10" s="55" t="s">
+        <v>188</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>100</v>
@@ -3509,7 +3508,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>101</v>
@@ -3517,17 +3516,17 @@
       <c r="F11" s="15"/>
       <c r="G11" s="4"/>
       <c r="H11" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>61</v>
@@ -3536,7 +3535,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>63</v>
@@ -3545,43 +3544,43 @@
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>71</v>
@@ -3590,7 +3589,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>73</v>
@@ -3599,91 +3598,91 @@
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>127</v>
-      </c>
       <c r="D15" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="D17" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>19</v>
@@ -3692,7 +3691,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>17</v>
@@ -3701,16 +3700,16 @@
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>11</v>
@@ -3719,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>13</v>
@@ -3728,16 +3727,16 @@
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>114</v>
@@ -3745,24 +3744,22 @@
       <c r="C20" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>119</v>
-      </c>
+      <c r="D20" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>81</v>
@@ -3771,52 +3768,52 @@
         <v>82</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="4"/>
       <c r="H21" s="15"/>
       <c r="I21" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>122</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="8"/>
       <c r="I22" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>23</v>
@@ -3825,79 +3822,79 @@
         <v>4</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>10</v>
@@ -3906,57 +3903,57 @@
         <v>1</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="D27" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>55</v>
@@ -3964,28 +3961,28 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>25</v>
@@ -3994,16 +3991,16 @@
       <c r="G29" s="4"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>116</v>
@@ -4012,7 +4009,7 @@
         <v>117</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>118</v>
@@ -4021,14 +4018,14 @@
       <c r="G30" s="4"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>68</v>
@@ -4037,7 +4034,7 @@
         <v>69</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>70</v>
@@ -4048,14 +4045,14 @@
       <c r="G31" s="4"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>108</v>
@@ -4064,7 +4061,7 @@
         <v>109</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>110</v>
@@ -4075,14 +4072,14 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>86</v>
@@ -4091,7 +4088,7 @@
         <v>87</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>88</v>
@@ -4100,14 +4097,14 @@
       <c r="G33" s="4"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -4116,23 +4113,23 @@
         <v>6</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="4"/>
       <c r="H34" s="8"/>
       <c r="I34" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>111</v>
@@ -4141,7 +4138,7 @@
         <v>112</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>113</v>
@@ -4150,14 +4147,14 @@
       <c r="G35" s="4"/>
       <c r="H35" s="15"/>
       <c r="I35" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>58</v>
@@ -4166,7 +4163,7 @@
         <v>59</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>60</v>
@@ -4176,14 +4173,14 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>52</v>
@@ -4192,34 +4189,34 @@
         <v>2</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>97</v>
@@ -4228,14 +4225,14 @@
       <c r="G38" s="4"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>102</v>
@@ -4244,7 +4241,7 @@
         <v>103</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>104</v>
@@ -4253,14 +4250,14 @@
       <c r="G39" s="4"/>
       <c r="H39" s="15"/>
       <c r="I39" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>93</v>
@@ -4269,7 +4266,7 @@
         <v>94</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>95</v>
@@ -4278,14 +4275,14 @@
       <c r="G40" s="4"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>90</v>
@@ -4294,7 +4291,7 @@
         <v>91</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>92</v>
@@ -4303,14 +4300,14 @@
       <c r="G41" s="4"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>40</v>
@@ -4319,7 +4316,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>41</v>
@@ -4328,16 +4325,16 @@
       <c r="G42" s="4"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>34</v>
@@ -4346,52 +4343,52 @@
         <v>0</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>35</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="D44" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>131</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>132</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A45" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>45</v>
@@ -4400,7 +4397,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>47</v>
@@ -4410,19 +4407,19 @@
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>48</v>
@@ -4431,27 +4428,27 @@
         <v>5</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="4"/>
       <c r="H46" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>49</v>
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>83</v>
@@ -4460,7 +4457,7 @@
         <v>84</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>85</v>
@@ -4469,23 +4466,23 @@
       <c r="G47" s="4"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>44</v>
@@ -4494,16 +4491,16 @@
       <c r="G48" s="4"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>96</v>
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>105</v>
@@ -4512,7 +4509,7 @@
         <v>106</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>107</v>
@@ -4521,39 +4518,39 @@
       <c r="G49" s="4"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>57</v>
@@ -4562,25 +4559,25 @@
         <v>89</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="35"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A52" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>77</v>
@@ -4589,7 +4586,7 @@
         <v>78</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E52" s="28"/>
       <c r="G52" s="4"/>
@@ -4598,21 +4595,21 @@
       <c r="J52" s="28"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="4"/>
@@ -4621,21 +4618,21 @@
       <c r="J53" s="28"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="4"/>
@@ -4644,21 +4641,21 @@
       <c r="J54" s="28"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="4"/>
@@ -4667,21 +4664,21 @@
       <c r="J55" s="28"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A56" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="4"/>
@@ -4690,43 +4687,43 @@
       <c r="J56" s="28"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A57" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F57" s="48"/>
       <c r="G57" s="4"/>
       <c r="H57" s="48"/>
       <c r="I57" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J57" s="28"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>17</v>
@@ -4735,26 +4732,26 @@
       <c r="G58" s="4"/>
       <c r="H58" s="48"/>
       <c r="I58" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J58" s="28"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A59" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="4"/>
@@ -4763,21 +4760,21 @@
       <c r="J59" s="28"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A60" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="4"/>
@@ -4786,21 +4783,21 @@
       <c r="J60" s="28"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A61" s="60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F61" s="48"/>
       <c r="G61" s="4"/>
@@ -4809,21 +4806,21 @@
       <c r="J61" s="28"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F62" s="48"/>
       <c r="G62" s="4"/>
@@ -4832,279 +4829,279 @@
       <c r="J62" s="28"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A63" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F63" s="48"/>
       <c r="G63" s="4"/>
       <c r="H63" s="48"/>
       <c r="I63" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J63" s="28"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F64" s="48"/>
       <c r="G64" s="4"/>
       <c r="H64" s="48"/>
       <c r="I64" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J64" s="28"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F65" s="48"/>
       <c r="G65" s="4"/>
       <c r="H65" s="48"/>
       <c r="I65" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J65" s="28"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J66" s="28"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F67" s="48"/>
       <c r="G67" s="4"/>
       <c r="H67" s="48"/>
       <c r="I67" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A68" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F68" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F68" s="48" t="s">
-        <v>145</v>
-      </c>
       <c r="G68" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H68" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J68" s="28"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A69" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="4"/>
       <c r="H69" s="48"/>
       <c r="I69" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J69" s="28"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F70" s="48"/>
       <c r="G70" s="4"/>
       <c r="H70" s="48"/>
       <c r="I70" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J70" s="28"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F71" s="48"/>
       <c r="G71" s="4"/>
       <c r="H71" s="48"/>
       <c r="I71" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J71" s="28"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F72" s="48"/>
       <c r="G72" s="4"/>
       <c r="H72" s="48"/>
       <c r="I72" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J72" s="28"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A73" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F73" s="48"/>
       <c r="G73" s="4"/>
@@ -5113,1123 +5110,1123 @@
       <c r="J73" s="28"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A74" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F74" s="48"/>
       <c r="G74" s="4"/>
       <c r="H74" s="48"/>
       <c r="I74" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J74" s="28"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F75" s="48"/>
       <c r="G75" s="4"/>
       <c r="H75" s="48"/>
       <c r="I75" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J75" s="28"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A76" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F76" s="48"/>
       <c r="G76" s="4"/>
       <c r="H76" s="48"/>
       <c r="I76" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J76" s="28"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A77" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F77" s="48"/>
       <c r="G77" s="4"/>
       <c r="H77" s="48"/>
       <c r="I77" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J77" s="28"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A78" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="4"/>
       <c r="H78" s="48"/>
       <c r="I78" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J78" s="28"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A79" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C79" s="39"/>
       <c r="D79" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F79" s="48"/>
       <c r="G79" s="4"/>
       <c r="H79" s="48"/>
       <c r="I79" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J79" s="28"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A80" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F80" s="48"/>
       <c r="G80" s="4"/>
       <c r="H80" s="48"/>
       <c r="I80" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J80" s="28"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A81" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D81" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F81" s="48" t="s">
         <v>144</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F81" s="48" t="s">
-        <v>145</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J81" s="28"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F82" s="48"/>
       <c r="G82" s="4"/>
       <c r="H82" s="48"/>
       <c r="I82" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J82" s="28"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F83" s="48"/>
       <c r="G83" s="4"/>
       <c r="H83" s="48"/>
       <c r="I83" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J83" s="28"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F84" s="48"/>
       <c r="G84" s="4"/>
       <c r="H84" s="48"/>
       <c r="I84" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J84" s="28"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F85" s="48"/>
       <c r="G85" s="4"/>
       <c r="H85" s="48"/>
       <c r="I85" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J85" s="28"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A86" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F86" s="48"/>
       <c r="G86" s="4"/>
       <c r="H86" s="48"/>
       <c r="I86" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J86" s="28"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F87" s="48"/>
       <c r="G87" s="4"/>
       <c r="H87" s="48"/>
       <c r="I87" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J87" s="28"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A88" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="B88" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="B88" s="45" t="s">
-        <v>446</v>
-      </c>
       <c r="C88" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F88" s="48"/>
       <c r="G88" s="4"/>
       <c r="H88" s="48"/>
       <c r="I88" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J88" s="28"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A89" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="4"/>
       <c r="H89" s="48"/>
       <c r="I89" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J89" s="28"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A90" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F90" s="48"/>
       <c r="G90" s="4"/>
       <c r="H90" s="48"/>
       <c r="I90" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J90" s="28"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F91" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="28"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F92" s="48"/>
       <c r="G92" s="4"/>
       <c r="H92" s="48"/>
       <c r="I92" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J92" s="28"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="4"/>
       <c r="H93" s="48"/>
       <c r="I93" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J93" s="28"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A94" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="4"/>
       <c r="H94" s="48"/>
       <c r="I94" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J94" s="28"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A95" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F95" s="48"/>
       <c r="G95" s="4"/>
       <c r="H95" s="48"/>
       <c r="I95" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J95" s="28"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A96" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D96" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F96" s="48" t="s">
         <v>144</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F96" s="48" t="s">
-        <v>145</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J96" s="28"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D97" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="F97" s="48" t="s">
         <v>144</v>
-      </c>
-      <c r="E97" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="F97" s="48" t="s">
-        <v>145</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I97" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J97" s="28"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="4"/>
       <c r="H98" s="48"/>
       <c r="I98" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J98" s="28"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A99" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F99" s="48"/>
       <c r="G99" s="4"/>
       <c r="H99" s="48"/>
       <c r="I99" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J99" s="28"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A100" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F100" s="48"/>
       <c r="G100" s="4"/>
       <c r="H100" s="48"/>
       <c r="I100" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J100" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A101" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F101" s="48"/>
       <c r="G101" s="4"/>
       <c r="H101" s="48"/>
       <c r="I101" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J101" s="28"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A102" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F102" s="48"/>
       <c r="G102" s="4"/>
       <c r="H102" s="48"/>
       <c r="I102" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J102" s="28"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A103" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F103" s="48"/>
       <c r="G103" s="4"/>
       <c r="H103" s="48"/>
       <c r="I103" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J103" s="28"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A104" s="60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F104" s="48"/>
       <c r="G104" s="4"/>
       <c r="H104" s="48"/>
       <c r="I104" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J104" s="28"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A105" s="60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F105" s="48"/>
       <c r="G105" s="4"/>
       <c r="H105" s="48"/>
       <c r="I105" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J105" s="28"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A106" s="60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D106" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F106" s="30" t="s">
         <v>144</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>145</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J106" s="28"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E107" s="57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F107" s="48"/>
       <c r="G107" s="4"/>
       <c r="H107" s="48"/>
       <c r="I107" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J107" s="28"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D108" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F108" s="30" t="s">
         <v>144</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F108" s="30" t="s">
-        <v>145</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A109" s="60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F109" s="48"/>
       <c r="G109" s="4"/>
       <c r="H109" s="48"/>
       <c r="I109" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J109" s="28"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A110" s="60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D110" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F110" s="30" t="s">
         <v>144</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>145</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J110" s="28"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.3">
       <c r="A111" s="60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B111" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F111" s="48"/>
       <c r="G111" s="4"/>
       <c r="H111" s="48"/>
       <c r="I111" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J111" s="28"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A112" s="60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F112" s="48"/>
       <c r="G112" s="4"/>
       <c r="H112" s="48"/>
       <c r="I112" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J112" s="28"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F113" s="48"/>
       <c r="G113" s="4"/>
       <c r="H113" s="48"/>
       <c r="I113" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J113" s="28"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B114" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F114" s="48"/>
       <c r="G114" s="4"/>
       <c r="H114" s="48"/>
       <c r="I114" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J114" s="28"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F115" s="48"/>
       <c r="G115" s="4"/>
       <c r="H115" s="48"/>
       <c r="I115" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J115" s="28"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B116" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D116" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F116" s="30" t="s">
         <v>144</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>145</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J116" s="28"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A117" s="69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B117" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E117" s="42" t="s">
         <v>63</v>
@@ -6238,188 +6235,189 @@
       <c r="G117" s="4"/>
       <c r="H117" s="48"/>
       <c r="I117" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J117" s="28"/>
       <c r="K117" s="70" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A118" s="69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D118" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J118" s="28"/>
       <c r="K118" s="8"/>
     </row>
-    <row r="119" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A119" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J119" s="28"/>
       <c r="K119" s="8"/>
     </row>
-    <row r="120" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A120" s="63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J120" s="28"/>
       <c r="K120" s="8"/>
     </row>
-    <row r="121" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A121" s="60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J121" s="28"/>
       <c r="K121" s="8"/>
     </row>
-    <row r="122" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A122" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D122" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J122" s="28"/>
       <c r="K122" s="8"/>
     </row>
-    <row r="123" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A123" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D123" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J123" s="28"/>
       <c r="K123" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA123" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}"/>
   <conditionalFormatting sqref="C108">
     <cfRule type="containsText" dxfId="93" priority="367" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",C108)))</formula>
@@ -6429,31 +6427,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="91" priority="359" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E73)))</formula>
+    <cfRule type="cellIs" priority="362" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="361" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E73)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="90" priority="360" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="361" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E73)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="362" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
+    <cfRule type="containsText" dxfId="89" priority="359" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
     <cfRule type="containsText" dxfId="88" priority="335" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="336" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="337" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E79)))</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="358" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="337" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="336" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
@@ -6463,22 +6461,22 @@
     <cfRule type="containsText" dxfId="84" priority="92" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E83)))</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="94" operator="greaterThan">
+      <formula>$G82="Activo"</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="83" priority="93" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E83)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="94" operator="greaterThan">
-      <formula>$G82="Activo"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="containsText" dxfId="82" priority="355" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E101)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="356" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="82" priority="356" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E101)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="357" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="355" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
@@ -6492,31 +6490,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="containsText" dxfId="80" priority="22" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E112)))</formula>
+    <cfRule type="containsText" dxfId="80" priority="24" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E112)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="25" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="79" priority="23" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="24" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E112)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="greaterThan">
+    <cfRule type="containsText" dxfId="78" priority="22" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E115">
+    <cfRule type="cellIs" priority="349" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114:E115">
-    <cfRule type="containsText" dxfId="77" priority="346" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="77" priority="347" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="346" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="347" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E114)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="75" priority="348" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E114)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="349" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
@@ -6567,17 +6565,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="66" priority="1" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="2" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="66" priority="2" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F68)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="3" operator="greaterThan">
       <formula>$G68="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="4" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="65" priority="4" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="1" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F73">
@@ -6589,11 +6587,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F83">
+    <cfRule type="containsText" dxfId="61" priority="98" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",F71)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="97" operator="greaterThan">
       <formula>$G71="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="98" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F90">
@@ -6634,11 +6632,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F101">
-    <cfRule type="containsText" dxfId="52" priority="26" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="52" priority="27" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="26" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="27" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F102">
@@ -6677,30 +6675,30 @@
     <cfRule type="cellIs" priority="39" operator="greaterThan">
       <formula>$G110="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="40" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="44" priority="41" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="40" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F110)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="42" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="41" priority="36" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="41" priority="37" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="36" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="37" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F112)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:F115">
+    <cfRule type="containsText" dxfId="39" priority="38" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",F112)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="35" operator="greaterThan">
       <formula>$G112="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="38" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F117:F121">
@@ -6709,28 +6707,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:F121">
-    <cfRule type="containsText" dxfId="38" priority="48" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="38" priority="50" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",F118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="48" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="49" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="36" priority="49" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="50" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F118)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
+    <cfRule type="containsText" dxfId="35" priority="46" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",F123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="45" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="44" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F123)))</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="43" operator="greaterThan">
       <formula>$G123="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="44" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="45" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="46" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53 F53:F66">
@@ -6742,17 +6740,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="containsText" dxfId="30" priority="130" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H80)))</formula>
+    <cfRule type="cellIs" priority="133" operator="greaterThan">
+      <formula>$G80="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="132" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H80)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="131" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",H80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="132" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H80)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="133" operator="greaterThan">
-      <formula>$G80="Activo"</formula>
+    <cfRule type="containsText" dxfId="28" priority="130" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:H115 I103:I121 E105:E106 E108 F113:F115 H117">
@@ -6791,11 +6789,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120">
-    <cfRule type="containsText" dxfId="24" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="24" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",H120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:H128">
@@ -6809,11 +6807,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H129">
-    <cfRule type="containsText" dxfId="21" priority="127" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="21" priority="128" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="127" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",H121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="128" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
@@ -6881,14 +6879,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="13" priority="87" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="13" priority="89" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="87" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="88" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="11" priority="88" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",I77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="89" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:I79">
@@ -6979,7 +6977,7 @@
       <formula>$G123="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{9006AFB9-6228-4AFF-A906-9639BAA6D151}">
       <formula1>"ACTIVO,BAJA,BAJA IT, VACACIONES"</formula1>
     </dataValidation>

--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="13_ncr:1_{ABA8431F-CE72-45D9-BDF5-19F52A0C9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B67E41A-D673-4852-9276-CD385A4E97F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
   <sheets>
     <sheet name="SEGUIMIENTO" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="450">
   <si>
     <t>SVO08017-P1-C018</t>
   </si>
@@ -101,12 +101,6 @@
     <t>TIENDA 11 - Viladecans</t>
   </si>
   <si>
-    <t>10/12 AL 2/01</t>
-  </si>
-  <si>
-    <t>01/12 AL 27/12</t>
-  </si>
-  <si>
     <t>MARIA CONCEPCION MARTINEZ CARRERAS</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>Se reincorpora 09/12 /2025</t>
-  </si>
-  <si>
     <t>EVA MARIA CASERO</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>SVO05326-P2-C001</t>
   </si>
   <si>
-    <t>24/12 al 02/01</t>
-  </si>
-  <si>
     <t>TIENDA 89 - El Prat de llobregat</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
     <t>TIENDA 31 - Vilafranca del Penedes</t>
   </si>
   <si>
-    <t>titular nueva 05/12</t>
-  </si>
-  <si>
     <t>GABRIELA CONTRERAS PEREZ</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
     <t>RITA GINER GALLEGO</t>
   </si>
   <si>
-    <t>titular desde el 02/12</t>
-  </si>
-  <si>
     <t xml:space="preserve">TIENDA 80 - Muntaner </t>
   </si>
   <si>
@@ -188,9 +170,6 @@
     <t>TIENDA 104 - Escorial</t>
   </si>
   <si>
-    <t>Titular nueva</t>
-  </si>
-  <si>
     <t>MONTSERRAT MARTINEZ</t>
   </si>
   <si>
@@ -209,9 +188,6 @@
     <t>MERCEDES DOMINGO</t>
   </si>
   <si>
-    <t>16/12 al 31/12</t>
-  </si>
-  <si>
     <t>TIENDA 86 - carrer Tallers 74  -castella</t>
   </si>
   <si>
@@ -329,9 +305,6 @@
     <t>RAFAEL HERNANDEZ PERALTA</t>
   </si>
   <si>
-    <t>es una baja corta</t>
-  </si>
-  <si>
     <t>OLIVER CANETTI</t>
   </si>
   <si>
@@ -437,9 +410,6 @@
     <t>ROMAN MARTINEZ CARRILLO</t>
   </si>
   <si>
-    <t>10/12 al 28/12</t>
-  </si>
-  <si>
     <t>VACACIONES 26</t>
   </si>
   <si>
@@ -530,12 +500,6 @@
     <t>LAURA BONILLA</t>
   </si>
   <si>
-    <t>baja de 3 dias</t>
-  </si>
-  <si>
-    <t>baja de 1 dia</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMANTA BELMONTE </t>
   </si>
   <si>
@@ -570,12 +534,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>28354 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:30 A 11:30 </t>
   </si>
   <si>
     <t>VICTOR PEREZ RICO</t>
@@ -3177,14 +3135,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H137" sqref="F135:H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,7 +3155,7 @@
     <col min="6" max="6" width="14.28515625" style="20" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="20" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5703125" style="20" customWidth="1"/>
     <col min="12" max="27" width="11.42578125" style="6"/>
@@ -3205,10 +3163,10 @@
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
@@ -3220,22 +3178,22 @@
         <v>9</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -3254,435 +3212,429 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="4"/>
       <c r="H3" s="19"/>
       <c r="I3" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="22" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>163</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>153</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="4"/>
       <c r="H6" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:27" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="4"/>
       <c r="H11" s="23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="22" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>19</v>
@@ -3691,7 +3643,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>17</v>
@@ -3700,16 +3652,14 @@
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>11</v>
@@ -3718,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>13</v>
@@ -3727,174 +3677,166 @@
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="4"/>
       <c r="H21" s="15"/>
       <c r="I21" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>177</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J21" s="35"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="8"/>
       <c r="I22" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>164</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="30" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>170</v>
-      </c>
       <c r="D25" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>10</v>
@@ -3903,141 +3845,137 @@
         <v>1</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="31" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J28" s="7"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="4"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>16</v>
@@ -4045,66 +3983,66 @@
       <c r="G31" s="4"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -4113,480 +4051,470 @@
         <v>6</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="4"/>
       <c r="H34" s="8"/>
       <c r="I34" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="15"/>
       <c r="I35" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="4"/>
       <c r="H39" s="15"/>
       <c r="I39" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="4"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>42</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A45" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="30" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="4"/>
       <c r="H46" s="25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="4"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J48" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="C49" s="26" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="4"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="35"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>178</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A52" s="60" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="E52" s="28"/>
       <c r="G52" s="4"/>
@@ -4595,21 +4523,21 @@
       <c r="J52" s="28"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="4"/>
@@ -4618,21 +4546,21 @@
       <c r="J53" s="28"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="4"/>
@@ -4641,21 +4569,21 @@
       <c r="J54" s="28"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="4"/>
@@ -4664,21 +4592,21 @@
       <c r="J55" s="28"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A56" s="60" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="4"/>
@@ -4687,43 +4615,43 @@
       <c r="J56" s="28"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A57" s="60" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F57" s="48"/>
       <c r="G57" s="4"/>
       <c r="H57" s="48"/>
       <c r="I57" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="J57" s="28"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>17</v>
@@ -4732,26 +4660,26 @@
       <c r="G58" s="4"/>
       <c r="H58" s="48"/>
       <c r="I58" s="8" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J58" s="28"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A59" s="60" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="4"/>
@@ -4760,21 +4688,21 @@
       <c r="J59" s="28"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A60" s="60" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="4"/>
@@ -4783,21 +4711,21 @@
       <c r="J60" s="28"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A61" s="60" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F61" s="48"/>
       <c r="G61" s="4"/>
@@ -4806,21 +4734,21 @@
       <c r="J61" s="28"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F62" s="48"/>
       <c r="G62" s="4"/>
@@ -4829,279 +4757,279 @@
       <c r="J62" s="28"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A63" s="67" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F63" s="48"/>
       <c r="G63" s="4"/>
       <c r="H63" s="48"/>
       <c r="I63" s="8" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="J63" s="28"/>
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F64" s="48"/>
       <c r="G64" s="4"/>
       <c r="H64" s="48"/>
       <c r="I64" s="8" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J64" s="28"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F65" s="48"/>
       <c r="G65" s="4"/>
       <c r="H65" s="48"/>
       <c r="I65" s="8" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="J65" s="28"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="54" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="J66" s="28"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="F67" s="48"/>
       <c r="G67" s="4"/>
       <c r="H67" s="48"/>
       <c r="I67" s="8" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A68" s="64" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G68" s="53" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="H68" s="53" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="J68" s="28"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A69" s="64" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="4"/>
       <c r="H69" s="48"/>
       <c r="I69" s="8" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="J69" s="28"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F70" s="48"/>
       <c r="G70" s="4"/>
       <c r="H70" s="48"/>
       <c r="I70" s="8" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="J70" s="28"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F71" s="48"/>
       <c r="G71" s="4"/>
       <c r="H71" s="48"/>
       <c r="I71" s="8" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="J71" s="28"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F72" s="48"/>
       <c r="G72" s="4"/>
       <c r="H72" s="48"/>
       <c r="I72" s="8" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="J72" s="28"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A73" s="60" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F73" s="48"/>
       <c r="G73" s="4"/>
@@ -5110,1320 +5038,1314 @@
       <c r="J73" s="28"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A74" s="60" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F74" s="48"/>
       <c r="G74" s="4"/>
       <c r="H74" s="48"/>
       <c r="I74" s="8" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="J74" s="28"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F75" s="48"/>
       <c r="G75" s="4"/>
       <c r="H75" s="48"/>
       <c r="I75" s="8" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="J75" s="28"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A76" s="60" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F76" s="48"/>
       <c r="G76" s="4"/>
       <c r="H76" s="48"/>
       <c r="I76" s="8" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="J76" s="28"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A77" s="60" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F77" s="48"/>
       <c r="G77" s="4"/>
       <c r="H77" s="48"/>
       <c r="I77" s="8" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="J77" s="28"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A78" s="60" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="4"/>
       <c r="H78" s="48"/>
       <c r="I78" s="8" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="J78" s="28"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A79" s="60" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C79" s="39"/>
       <c r="D79" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F79" s="48"/>
       <c r="G79" s="4"/>
       <c r="H79" s="48"/>
       <c r="I79" s="8" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="J79" s="28"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A80" s="60" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F80" s="48"/>
       <c r="G80" s="4"/>
       <c r="H80" s="48"/>
       <c r="I80" s="8" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J80" s="28"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A81" s="60" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F81" s="48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="53" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="J81" s="28"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F82" s="48"/>
       <c r="G82" s="4"/>
       <c r="H82" s="48"/>
       <c r="I82" s="8" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="J82" s="28"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F83" s="48"/>
       <c r="G83" s="4"/>
       <c r="H83" s="48"/>
       <c r="I83" s="8" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J83" s="28"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F84" s="48"/>
       <c r="G84" s="4"/>
       <c r="H84" s="48"/>
       <c r="I84" s="37" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="J84" s="28"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F85" s="48"/>
       <c r="G85" s="4"/>
       <c r="H85" s="48"/>
       <c r="I85" s="8" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="J85" s="28"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A86" s="60" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="F86" s="48"/>
       <c r="G86" s="4"/>
       <c r="H86" s="48"/>
       <c r="I86" s="8" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="J86" s="28"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="F87" s="48"/>
       <c r="G87" s="4"/>
       <c r="H87" s="48"/>
       <c r="I87" s="8" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="J87" s="28"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A88" s="52" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F88" s="48"/>
       <c r="G88" s="4"/>
       <c r="H88" s="48"/>
       <c r="I88" s="8" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="J88" s="28"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A89" s="60" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="4"/>
       <c r="H89" s="48"/>
       <c r="I89" s="8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="J89" s="28"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A90" s="60" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F90" s="48"/>
       <c r="G90" s="4"/>
       <c r="H90" s="48"/>
       <c r="I90" s="8" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="J90" s="28"/>
       <c r="K90" s="8"/>
     </row>
     <row r="91" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="64" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F91" s="48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="56" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="28"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F92" s="48"/>
       <c r="G92" s="4"/>
       <c r="H92" s="48"/>
       <c r="I92" s="8" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="J92" s="28"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="4"/>
       <c r="H93" s="48"/>
       <c r="I93" s="8" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="J93" s="28"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A94" s="64" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="4"/>
       <c r="H94" s="48"/>
       <c r="I94" s="8" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="J94" s="28"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A95" s="64" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F95" s="48"/>
       <c r="G95" s="4"/>
       <c r="H95" s="48"/>
       <c r="I95" s="8" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="J95" s="28"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A96" s="64" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F96" s="48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="53" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="J96" s="28"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F97" s="48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="48" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="I97" s="51" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="J97" s="28"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="4"/>
       <c r="H98" s="48"/>
       <c r="I98" s="8" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="J98" s="28"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A99" s="64" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F99" s="48"/>
       <c r="G99" s="4"/>
       <c r="H99" s="48"/>
       <c r="I99" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="J99" s="28"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A100" s="60" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F100" s="48"/>
       <c r="G100" s="4"/>
       <c r="H100" s="48"/>
       <c r="I100" s="8" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="J100" s="28" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A101" s="60" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="F101" s="48"/>
       <c r="G101" s="4"/>
       <c r="H101" s="48"/>
       <c r="I101" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="J101" s="28"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A102" s="60" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F102" s="48"/>
       <c r="G102" s="4"/>
       <c r="H102" s="48"/>
       <c r="I102" s="8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="J102" s="28"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A103" s="60" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="F103" s="48"/>
       <c r="G103" s="4"/>
       <c r="H103" s="48"/>
       <c r="I103" s="8" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="J103" s="28"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A104" s="60" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F104" s="48"/>
       <c r="G104" s="4"/>
       <c r="H104" s="48"/>
       <c r="I104" s="8" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="J104" s="28"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A105" s="60" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F105" s="48"/>
       <c r="G105" s="4"/>
       <c r="H105" s="48"/>
       <c r="I105" s="8" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="J105" s="28"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A106" s="60" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="53" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="J106" s="28"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E107" s="57" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="F107" s="48"/>
       <c r="G107" s="4"/>
       <c r="H107" s="48"/>
       <c r="I107" s="8" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="J107" s="28"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="59" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A109" s="60" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F109" s="48"/>
       <c r="G109" s="4"/>
       <c r="H109" s="48"/>
       <c r="I109" s="8" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="J109" s="28"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A110" s="60" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="53" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="J110" s="28"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.3">
       <c r="A111" s="60" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B111" s="58" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F111" s="48"/>
       <c r="G111" s="4"/>
       <c r="H111" s="48"/>
       <c r="I111" s="8" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J111" s="28"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A112" s="60" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="F112" s="48"/>
       <c r="G112" s="4"/>
       <c r="H112" s="48"/>
       <c r="I112" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="J112" s="28"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="60" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="F113" s="48"/>
       <c r="G113" s="4"/>
       <c r="H113" s="48"/>
       <c r="I113" s="8" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="J113" s="28"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B114" s="39" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F114" s="48"/>
       <c r="G114" s="4"/>
       <c r="H114" s="48"/>
       <c r="I114" s="8" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="J114" s="28"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F115" s="48"/>
       <c r="G115" s="4"/>
       <c r="H115" s="48"/>
       <c r="I115" s="8" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="J115" s="28"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B116" s="39" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="53" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="J116" s="28"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A117" s="69" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B117" s="39" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F117" s="48"/>
       <c r="G117" s="4"/>
       <c r="H117" s="48"/>
       <c r="I117" s="8" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="J117" s="28"/>
       <c r="K117" s="70" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A118" s="69" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D118" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="53" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="J118" s="28"/>
       <c r="K118" s="8"/>
     </row>
     <row r="119" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A119" s="63" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="53" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="J119" s="28"/>
       <c r="K119" s="8"/>
     </row>
     <row r="120" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A120" s="63" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="53" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="J120" s="28"/>
       <c r="K120" s="8"/>
     </row>
     <row r="121" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A121" s="60" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="59" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="J121" s="28"/>
       <c r="K121" s="8"/>
     </row>
     <row r="122" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A122" s="64" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D122" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="53" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="J122" s="28"/>
       <c r="K122" s="8"/>
     </row>
     <row r="123" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A123" s="60" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D123" s="55" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="59" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="J123" s="28"/>
       <c r="K123" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA123" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DESCUBIERTO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA123" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}"/>
   <conditionalFormatting sqref="C108">
     <cfRule type="containsText" dxfId="93" priority="367" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",C108)))</formula>

--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Documents/GitHub/SIFU/operacionessifu_alex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE483E9-9BC0-452E-9EE8-7F97BD598635}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5A961DA-4DF8-475E-B949-006E69DCF469}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="451">
   <si>
     <t>SVO08017-P1-C018</t>
   </si>
@@ -1390,13 +1390,16 @@
   </si>
   <si>
     <t>SVO09531</t>
+  </si>
+  <si>
+    <t>SIN TITULAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,6 +1445,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="27">
@@ -1642,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1850,11 +1859,170 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="109">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -2812,6 +2980,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3131,14 +3303,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D107:D111"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,7 +3380,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>269</v>
       </c>
@@ -3233,7 +3405,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>269</v>
       </c>
@@ -3258,7 +3430,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>269</v>
       </c>
@@ -3287,7 +3459,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>269</v>
       </c>
@@ -3312,7 +3484,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>269</v>
       </c>
@@ -3339,7 +3511,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>269</v>
       </c>
@@ -3364,7 +3536,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>269</v>
       </c>
@@ -3391,7 +3563,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>269</v>
       </c>
@@ -3431,21 +3603,23 @@
       <c r="D10" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="71" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="59" t="s">
+        <v>151</v>
+      </c>
       <c r="I10" s="7" t="s">
         <v>442</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>269</v>
       </c>
@@ -3472,7 +3646,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>269</v>
       </c>
@@ -3497,7 +3671,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>269</v>
       </c>
@@ -3526,7 +3700,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>269</v>
       </c>
@@ -3551,7 +3725,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
         <v>269</v>
       </c>
@@ -3578,7 +3752,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>269</v>
       </c>
@@ -3603,7 +3777,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>269</v>
       </c>
@@ -3628,7 +3802,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>269</v>
       </c>
@@ -3653,7 +3827,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>269</v>
       </c>
@@ -3689,19 +3863,21 @@
         <v>106</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>174</v>
+        <v>450</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="59" t="s">
+        <v>151</v>
+      </c>
       <c r="I20" s="7" t="s">
         <v>442</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>269</v>
       </c>
@@ -3726,7 +3902,7 @@
       <c r="J21" s="35"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>269</v>
       </c>
@@ -3751,7 +3927,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>269</v>
       </c>
@@ -3780,7 +3956,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>269</v>
       </c>
@@ -3805,7 +3981,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60" t="s">
         <v>269</v>
       </c>
@@ -3841,19 +4017,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>174</v>
+        <v>450</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="59" t="s">
+        <v>151</v>
+      </c>
       <c r="I26" s="7" t="s">
         <v>442</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="60" t="s">
         <v>269</v>
       </c>
@@ -3880,7 +4058,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
         <v>269</v>
       </c>
@@ -3907,7 +4085,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
         <v>269</v>
       </c>
@@ -3932,7 +4110,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>269</v>
       </c>
@@ -3957,7 +4135,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
         <v>269</v>
       </c>
@@ -3984,7 +4162,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
         <v>269</v>
       </c>
@@ -4011,7 +4189,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="6" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
         <v>269</v>
       </c>
@@ -4036,7 +4214,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
         <v>269</v>
       </c>
@@ -4061,7 +4239,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>269</v>
       </c>
@@ -4086,7 +4264,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>269</v>
       </c>
@@ -4125,21 +4303,23 @@
       <c r="D37" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="71" t="s">
         <v>141</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="59" t="s">
+        <v>151</v>
+      </c>
       <c r="I37" s="7" t="s">
         <v>442</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
         <v>269</v>
       </c>
@@ -4164,7 +4344,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
         <v>269</v>
       </c>
@@ -4189,7 +4369,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>269</v>
       </c>
@@ -4214,7 +4394,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
         <v>269</v>
       </c>
@@ -4239,7 +4419,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>269</v>
       </c>
@@ -4264,7 +4444,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
         <v>269</v>
       </c>
@@ -4293,7 +4473,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
         <v>269</v>
       </c>
@@ -4318,7 +4498,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="60" t="s">
         <v>269</v>
       </c>
@@ -4347,7 +4527,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
         <v>269</v>
       </c>
@@ -4374,7 +4554,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
         <v>269</v>
       </c>
@@ -4399,7 +4579,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
         <v>269</v>
       </c>
@@ -4424,7 +4604,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60" t="s">
         <v>269</v>
       </c>
@@ -4449,7 +4629,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="6" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="60" t="s">
         <v>269</v>
       </c>
@@ -4474,7 +4654,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="60" t="s">
         <v>269</v>
       </c>
@@ -4499,7 +4679,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="60" t="s">
         <v>269</v>
       </c>
@@ -4519,7 +4699,7 @@
       <c r="J52" s="28"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>234</v>
       </c>
@@ -4542,7 +4722,7 @@
       <c r="J53" s="28"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
         <v>243</v>
       </c>
@@ -4565,7 +4745,7 @@
       <c r="J54" s="28"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
         <v>243</v>
       </c>
@@ -4588,7 +4768,7 @@
       <c r="J55" s="28"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="60" t="s">
         <v>243</v>
       </c>
@@ -4611,7 +4791,7 @@
       <c r="J56" s="28"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="60" t="s">
         <v>243</v>
       </c>
@@ -4636,7 +4816,7 @@
       <c r="J57" s="28"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>235</v>
       </c>
@@ -4661,7 +4841,7 @@
       <c r="J58" s="28"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="60" t="s">
         <v>243</v>
       </c>
@@ -4684,7 +4864,7 @@
       <c r="J59" s="28"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="60" t="s">
         <v>243</v>
       </c>
@@ -4707,7 +4887,7 @@
       <c r="J60" s="28"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="60" t="s">
         <v>261</v>
       </c>
@@ -4730,7 +4910,7 @@
       <c r="J61" s="28"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>267</v>
       </c>
@@ -4753,7 +4933,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="67" t="s">
         <v>233</v>
       </c>
@@ -4791,19 +4971,23 @@
       <c r="D64" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="48"/>
+      <c r="F64" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="G64" s="4"/>
-      <c r="H64" s="48"/>
+      <c r="H64" s="59" t="s">
+        <v>151</v>
+      </c>
       <c r="I64" s="8" t="s">
         <v>367</v>
       </c>
       <c r="J64" s="28"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>234</v>
       </c>
@@ -4838,13 +5022,13 @@
       <c r="C66" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="48" t="s">
+      <c r="F66" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G66" s="4"/>
@@ -4857,7 +5041,7 @@
       <c r="J66" s="28"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>236</v>
       </c>
@@ -4890,13 +5074,13 @@
         <v>277</v>
       </c>
       <c r="C68" s="39"/>
-      <c r="D68" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="D68" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="F68" s="48" t="s">
+      <c r="F68" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G68" s="53" t="s">
@@ -4911,7 +5095,7 @@
       <c r="J68" s="28"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="64" t="s">
         <v>237</v>
       </c>
@@ -4936,7 +5120,7 @@
       <c r="J69" s="28"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
         <v>238</v>
       </c>
@@ -4961,7 +5145,7 @@
       <c r="J70" s="28"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
         <v>239</v>
       </c>
@@ -4986,7 +5170,7 @@
       <c r="J71" s="28"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="s">
         <v>240</v>
       </c>
@@ -5011,7 +5195,7 @@
       <c r="J72" s="28"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="60" t="s">
         <v>240</v>
       </c>
@@ -5034,7 +5218,7 @@
       <c r="J73" s="28"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="60" t="s">
         <v>240</v>
       </c>
@@ -5059,7 +5243,7 @@
       <c r="J74" s="28"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60" t="s">
         <v>240</v>
       </c>
@@ -5084,7 +5268,7 @@
       <c r="J75" s="28"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="60" t="s">
         <v>240</v>
       </c>
@@ -5109,7 +5293,7 @@
       <c r="J76" s="28"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="60" t="s">
         <v>240</v>
       </c>
@@ -5134,7 +5318,7 @@
       <c r="J77" s="28"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="60" t="s">
         <v>240</v>
       </c>
@@ -5159,7 +5343,7 @@
       <c r="J78" s="28"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="60" t="s">
         <v>240</v>
       </c>
@@ -5182,7 +5366,7 @@
       <c r="J79" s="28"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="60" t="s">
         <v>241</v>
       </c>
@@ -5217,13 +5401,13 @@
       <c r="C81" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="8" t="s">
+      <c r="D81" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F81" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G81" s="4"/>
@@ -5236,7 +5420,7 @@
       <c r="J81" s="28"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
         <v>242</v>
       </c>
@@ -5261,7 +5445,7 @@
       <c r="J82" s="28"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
         <v>244</v>
       </c>
@@ -5286,7 +5470,7 @@
       <c r="J83" s="28"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="6" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
         <v>243</v>
       </c>
@@ -5311,7 +5495,7 @@
       <c r="J84" s="28"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
         <v>245</v>
       </c>
@@ -5336,7 +5520,7 @@
       <c r="J85" s="28"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="60" t="s">
         <v>246</v>
       </c>
@@ -5361,7 +5545,7 @@
       <c r="J86" s="28"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
         <v>247</v>
       </c>
@@ -5386,7 +5570,7 @@
       <c r="J87" s="28"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="52" t="s">
         <v>430</v>
       </c>
@@ -5411,7 +5595,7 @@
       <c r="J88" s="28"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="60" t="s">
         <v>248</v>
       </c>
@@ -5436,7 +5620,7 @@
       <c r="J89" s="28"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="6" customFormat="1" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="60" t="s">
         <v>249</v>
       </c>
@@ -5474,10 +5658,10 @@
       <c r="D91" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="72" t="s">
         <v>335</v>
       </c>
-      <c r="F91" s="48" t="s">
+      <c r="F91" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G91" s="4"/>
@@ -5488,7 +5672,7 @@
       <c r="J91" s="28"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>252</v>
       </c>
@@ -5513,7 +5697,7 @@
       <c r="J92" s="28"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>250</v>
       </c>
@@ -5538,7 +5722,7 @@
       <c r="J93" s="28"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="64" t="s">
         <v>253</v>
       </c>
@@ -5563,7 +5747,7 @@
       <c r="J94" s="28"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="6" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="64" t="s">
         <v>253</v>
       </c>
@@ -5588,7 +5772,7 @@
       <c r="J95" s="28"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="64" t="s">
         <v>253</v>
       </c>
@@ -5601,7 +5785,7 @@
       <c r="D96" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="72" t="s">
         <v>339</v>
       </c>
       <c r="F96" s="48" t="s">
@@ -5617,7 +5801,7 @@
       <c r="J96" s="28"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>254</v>
       </c>
@@ -5630,7 +5814,7 @@
       <c r="D97" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="41" t="s">
+      <c r="E97" s="73" t="s">
         <v>340</v>
       </c>
       <c r="F97" s="48" t="s">
@@ -5646,7 +5830,7 @@
       <c r="J97" s="28"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
         <v>254</v>
       </c>
@@ -5671,7 +5855,7 @@
       <c r="J98" s="28"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="64" t="s">
         <v>254</v>
       </c>
@@ -5696,7 +5880,7 @@
       <c r="J99" s="28"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="60" t="s">
         <v>255</v>
       </c>
@@ -5723,7 +5907,7 @@
       </c>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="60" t="s">
         <v>255</v>
       </c>
@@ -5748,7 +5932,7 @@
       <c r="J101" s="28"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="60" t="s">
         <v>256</v>
       </c>
@@ -5773,7 +5957,7 @@
       <c r="J102" s="28"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="60" t="s">
         <v>256</v>
       </c>
@@ -5798,7 +5982,7 @@
       <c r="J103" s="28"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="60" t="s">
         <v>257</v>
       </c>
@@ -5823,7 +6007,7 @@
       <c r="J104" s="28"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="60" t="s">
         <v>257</v>
       </c>
@@ -5848,7 +6032,7 @@
       <c r="J105" s="28"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="60" t="s">
         <v>258</v>
       </c>
@@ -5877,7 +6061,7 @@
       <c r="J106" s="28"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
         <v>259</v>
       </c>
@@ -5915,10 +6099,10 @@
       <c r="D108" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="F108" s="30" t="s">
+      <c r="F108" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G108" s="4"/>
@@ -5931,7 +6115,7 @@
       <c r="J108" s="28"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="60" t="s">
         <v>260</v>
       </c>
@@ -5956,7 +6140,7 @@
       <c r="J109" s="28"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="60" t="s">
         <v>261</v>
       </c>
@@ -5985,7 +6169,7 @@
       <c r="J110" s="28"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="60" t="s">
         <v>262</v>
       </c>
@@ -6010,7 +6194,7 @@
       <c r="J111" s="28"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="60" t="s">
         <v>263</v>
       </c>
@@ -6035,7 +6219,7 @@
       <c r="J112" s="28"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="60" t="s">
         <v>263</v>
       </c>
@@ -6060,7 +6244,7 @@
       <c r="J113" s="28"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>265</v>
       </c>
@@ -6085,7 +6269,7 @@
       <c r="J114" s="28"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>265</v>
       </c>
@@ -6110,7 +6294,7 @@
       <c r="J115" s="28"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
         <v>265</v>
       </c>
@@ -6139,7 +6323,7 @@
       <c r="J116" s="28"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="69" t="s">
         <v>266</v>
       </c>
@@ -6179,10 +6363,10 @@
       <c r="D118" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="F118" s="30" t="s">
+      <c r="F118" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G118" s="4"/>
@@ -6208,10 +6392,10 @@
       <c r="D119" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="F119" s="30" t="s">
+      <c r="F119" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G119" s="4"/>
@@ -6237,10 +6421,10 @@
       <c r="D120" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="F120" s="30" t="s">
+      <c r="F120" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G120" s="4"/>
@@ -6266,10 +6450,10 @@
       <c r="D121" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="F121" s="30" t="s">
+      <c r="F121" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G121" s="4"/>
@@ -6295,10 +6479,10 @@
       <c r="D122" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="F122" s="30" t="s">
+      <c r="F122" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G122" s="4"/>
@@ -6324,10 +6508,10 @@
       <c r="D123" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="F123" s="30" t="s">
+      <c r="F123" s="21" t="s">
         <v>134</v>
       </c>
       <c r="G123" s="4"/>
@@ -6341,567 +6525,621 @@
       <c r="K123" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA123" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}"/>
+  <autoFilter ref="A1:AA123" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DESCUBIERTO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="BAJA IT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C108">
-    <cfRule type="containsText" dxfId="93" priority="367" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="108" priority="387" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",C108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="368" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="107" priority="388" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",C108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" priority="362" operator="greaterThan">
+    <cfRule type="cellIs" priority="382" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="361" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="106" priority="381" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="360" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="105" priority="380" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="359" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="104" priority="379" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="88" priority="335" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="103" priority="355" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E79)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="358" operator="greaterThan">
+    <cfRule type="cellIs" priority="378" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="337" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="102" priority="357" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="336" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="101" priority="356" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="85" priority="91" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="100" priority="111" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="92" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="99" priority="112" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E83)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" priority="114" operator="greaterThan">
       <formula>$G82="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="93" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="98" priority="113" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="containsText" dxfId="82" priority="356" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="97" priority="376" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E101)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="357" operator="greaterThan">
+    <cfRule type="cellIs" priority="377" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="355" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="96" priority="375" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" priority="363" operator="greaterThan">
+    <cfRule type="cellIs" priority="383" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" priority="364" operator="greaterThan">
+    <cfRule type="cellIs" priority="384" operator="greaterThan">
       <formula>$G108="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="containsText" dxfId="80" priority="24" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="95" priority="44" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E112)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" priority="45" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="23" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="94" priority="43" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="22" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="93" priority="42" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:E115">
-    <cfRule type="cellIs" priority="349" operator="greaterThan">
+    <cfRule type="cellIs" priority="369" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="347" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="92" priority="367" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="346" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="91" priority="366" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="348" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="90" priority="368" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" priority="332" operator="greaterThan">
+    <cfRule type="cellIs" priority="352" operator="greaterThan">
       <formula>$G117="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122:E123">
-    <cfRule type="containsText" dxfId="74" priority="9" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="89" priority="29" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="10" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="88" priority="30" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="11" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="87" priority="31" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E122)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" priority="32" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101:F101">
-    <cfRule type="containsText" dxfId="71" priority="29" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="86" priority="49" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117:F117">
-    <cfRule type="containsText" dxfId="70" priority="333" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="85" priority="353" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",E117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="334" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="84" priority="354" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",E117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53 H53 E117:F117">
-    <cfRule type="containsText" dxfId="68" priority="100" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="83" priority="120" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53 H53">
-    <cfRule type="cellIs" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" priority="119" operator="greaterThan">
       <formula>$G53="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:F66 F103:F104 C108">
-    <cfRule type="containsText" dxfId="67" priority="366" stopIfTrue="1" operator="containsText" text="VACACIONES">
+  <conditionalFormatting sqref="F54:F63 F103:F104 C108 F65">
+    <cfRule type="containsText" dxfId="82" priority="386" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",C54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="66" priority="2" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F68)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="3" operator="greaterThan">
-      <formula>$G68="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="4" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="1" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F71:F73">
-    <cfRule type="containsText" dxfId="63" priority="113" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="78" priority="133" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="114" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="77" priority="134" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F71)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:F83">
-    <cfRule type="containsText" dxfId="61" priority="98" stopIfTrue="1" operator="containsText" text="VACACIONES">
+  <conditionalFormatting sqref="F71:F80 F82:F83">
+    <cfRule type="containsText" dxfId="76" priority="118" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F71)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" priority="117" operator="greaterThan">
       <formula>$G71="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:F90">
-    <cfRule type="containsText" dxfId="60" priority="95" stopIfTrue="1" operator="containsText" text="BAJA IT">
+  <conditionalFormatting sqref="F74:F80 F82:F90">
+    <cfRule type="containsText" dxfId="75" priority="115" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="96" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="74" priority="116" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:F94">
-    <cfRule type="cellIs" priority="85" operator="greaterThan">
+  <conditionalFormatting sqref="F84:F90 F92:F94">
+    <cfRule type="cellIs" priority="105" operator="greaterThan">
       <formula>$G84="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="86" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="73" priority="106" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F84)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91">
-    <cfRule type="containsText" dxfId="57" priority="83" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="84" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F92:F94">
-    <cfRule type="containsText" dxfId="55" priority="117" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="70" priority="137" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="118" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="69" priority="138" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F100">
-    <cfRule type="containsText" dxfId="53" priority="78" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="68" priority="98" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F101">
-    <cfRule type="containsText" dxfId="52" priority="27" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="67" priority="47" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="26" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="66" priority="46" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F102">
-    <cfRule type="cellIs" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" priority="48" operator="greaterThan">
       <formula>$G95="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="containsText" dxfId="50" priority="33" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="65" priority="53" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:F104">
-    <cfRule type="containsText" dxfId="49" priority="31" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="64" priority="51" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="32" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="63" priority="52" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="47" priority="67" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="62" priority="87" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="68" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="61" priority="88" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F106)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" priority="89" operator="greaterThan">
       <formula>$G106="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="70" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="60" priority="90" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" priority="59" operator="greaterThan">
       <formula>$G110="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="41" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="59" priority="61" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="40" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="58" priority="60" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="57" priority="62" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="41" priority="37" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="56" priority="57" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",F112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="36" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="55" priority="56" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:F115">
-    <cfRule type="containsText" dxfId="39" priority="38" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="54" priority="58" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F112)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" priority="55" operator="greaterThan">
       <formula>$G112="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117:F121">
-    <cfRule type="cellIs" priority="18" operator="greaterThan">
+  <conditionalFormatting sqref="F117">
+    <cfRule type="cellIs" priority="38" operator="greaterThan">
       <formula>$G117="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F118:F121">
-    <cfRule type="containsText" dxfId="38" priority="50" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="48" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="49" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123">
-    <cfRule type="containsText" dxfId="35" priority="46" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="45" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="44" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F123)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="43" operator="greaterThan">
+  <conditionalFormatting sqref="H53 F53:F63 F65">
+    <cfRule type="containsText" dxfId="47" priority="121" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="122" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" priority="153" operator="greaterThan">
+      <formula>$G80="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="152" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="151" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="150" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82:H115 I103:I121 E105:E106 E108 F113:F115 H117">
+    <cfRule type="containsText" dxfId="42" priority="365" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",E82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82:H115 I103:I121 E105:E106 E108 H117 F113:F115">
+    <cfRule type="containsText" dxfId="41" priority="364" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",E82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82:H115">
+    <cfRule type="cellIs" priority="145" operator="greaterThan">
+      <formula>$G82="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="containsText" dxfId="40" priority="144" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="cellIs" priority="159" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="cellIs" priority="40" operator="greaterThan">
+      <formula>$G104="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="cellIs" priority="41" operator="greaterThan">
+      <formula>$G106="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H120">
+    <cfRule type="containsText" dxfId="39" priority="36" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="35" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H120:H128">
+    <cfRule type="cellIs" priority="34" operator="greaterThan">
+      <formula>$G120="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H120:H129">
+    <cfRule type="containsText" dxfId="37" priority="37" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121:H129">
+    <cfRule type="containsText" dxfId="36" priority="148" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="147" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H121)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122">
+    <cfRule type="cellIs" priority="33" operator="greaterThan">
+      <formula>$G119="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="cellIs" priority="149" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60 I82 I84:I97">
+    <cfRule type="cellIs" priority="261" operator="greaterThan">
+      <formula>$G60="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60 I82 I84:I102">
+    <cfRule type="containsText" dxfId="34" priority="259" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="260" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60 I82">
+    <cfRule type="containsText" dxfId="32" priority="258" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:I71 I73:I74 I98:I100">
+    <cfRule type="cellIs" priority="235" operator="greaterThan">
+      <formula>$G62="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:I76">
+    <cfRule type="containsText" dxfId="31" priority="359" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="360" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="361" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="cellIs" priority="253" operator="greaterThan">
+      <formula>$G71="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75">
+    <cfRule type="cellIs" priority="236" operator="greaterThan">
+      <formula>$G74="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="cellIs" priority="392" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77">
+    <cfRule type="cellIs" priority="249" operator="greaterThan">
+      <formula>$G76="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77:I78">
+    <cfRule type="containsText" dxfId="28" priority="109" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="107" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="108" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78:I79">
+    <cfRule type="cellIs" priority="110" operator="greaterThan">
+      <formula>$G78="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="containsText" dxfId="25" priority="262" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="263" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="264" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="cellIs" priority="268" operator="greaterThan">
+      <formula>$G80="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81:I82">
+    <cfRule type="containsText" dxfId="22" priority="265" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="266" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="267" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="cellIs" priority="269" operator="greaterThan">
+      <formula>$G80="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84:I102">
+    <cfRule type="containsText" dxfId="19" priority="245" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101">
+    <cfRule type="cellIs" priority="270" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102 F54:F63 F103:F104 C108 F65">
+    <cfRule type="cellIs" priority="385" operator="greaterThan">
+      <formula>$G54="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103">
+    <cfRule type="cellIs" priority="271" operator="greaterThan">
+      <formula>$G101="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:I121 E108 H117 H82:H115 E105:E106">
+    <cfRule type="containsText" dxfId="18" priority="363" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",E82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104:I121 E108 H117">
+    <cfRule type="cellIs" priority="350" operator="greaterThan">
+      <formula>$G104="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I122">
+    <cfRule type="cellIs" priority="240" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I122:I123">
+    <cfRule type="containsText" dxfId="17" priority="140" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="141" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="142" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I123">
+    <cfRule type="cellIs" priority="139" operator="greaterThan">
       <formula>$G123="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53 F53:F66">
-    <cfRule type="containsText" dxfId="32" priority="101" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="102" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" priority="133" operator="greaterThan">
-      <formula>$G80="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="132" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="131" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="130" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82:H115 I103:I121 E105:E106 E108 F113:F115 H117">
-    <cfRule type="containsText" dxfId="27" priority="345" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",E82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82:H115 I103:I121 E105:E106 E108 H117 F113:F115">
-    <cfRule type="containsText" dxfId="26" priority="344" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",E82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82:H115">
-    <cfRule type="cellIs" priority="125" operator="greaterThan">
-      <formula>$G82="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
-    <cfRule type="containsText" dxfId="25" priority="124" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H101)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" priority="139" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
-    <cfRule type="cellIs" priority="20" operator="greaterThan">
-      <formula>$G104="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" priority="21" operator="greaterThan">
-      <formula>$G106="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
-    <cfRule type="containsText" dxfId="24" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H120)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H120:H128">
-    <cfRule type="cellIs" priority="14" operator="greaterThan">
-      <formula>$G120="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H120:H129">
-    <cfRule type="containsText" dxfId="22" priority="17" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",H120)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H121:H129">
-    <cfRule type="containsText" dxfId="21" priority="128" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",H121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="127" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",H121)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" priority="17" operator="greaterThan">
+      <formula>$G37="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="14" priority="18" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="12" priority="19" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="20" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" priority="13" operator="greaterThan">
-      <formula>$G119="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" priority="129" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60 I82 I84:I97">
-    <cfRule type="cellIs" priority="241" operator="greaterThan">
-      <formula>$G60="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60 I82 I84:I102">
-    <cfRule type="containsText" dxfId="19" priority="239" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="240" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60 I82">
-    <cfRule type="containsText" dxfId="17" priority="238" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:I71 I73:I74 I98:I100">
-    <cfRule type="cellIs" priority="215" operator="greaterThan">
-      <formula>$G62="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:I76">
-    <cfRule type="containsText" dxfId="16" priority="339" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="340" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="341" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" priority="233" operator="greaterThan">
-      <formula>$G71="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" priority="216" operator="greaterThan">
-      <formula>$G74="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" priority="372" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" priority="229" operator="greaterThan">
-      <formula>$G76="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="13" priority="89" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="87" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="88" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:I79">
-    <cfRule type="cellIs" priority="90" operator="greaterThan">
-      <formula>$G78="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="10" priority="242" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="243" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="244" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" priority="248" operator="greaterThan">
-      <formula>$G80="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81:I82">
-    <cfRule type="containsText" dxfId="7" priority="245" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I81)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="246" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I81)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="247" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" priority="249" operator="greaterThan">
-      <formula>$G80="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84:I102">
-    <cfRule type="containsText" dxfId="4" priority="225" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" priority="250" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102 F54:F66 F103:F104 C108">
-    <cfRule type="cellIs" priority="365" operator="greaterThan">
-      <formula>$G54="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" priority="251" operator="greaterThan">
-      <formula>$G101="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I121 E108 H117 H82:H115 E105:E106">
-    <cfRule type="containsText" dxfId="3" priority="343" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",E82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I104:I121 E108 H117">
-    <cfRule type="cellIs" priority="330" operator="greaterThan">
-      <formula>$G104="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" priority="220" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122:I123">
-    <cfRule type="containsText" dxfId="2" priority="120" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="121" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="122" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" priority="119" operator="greaterThan">
-      <formula>$G123="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+      <formula>$G10="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="11" priority="14" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="9" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" priority="9" operator="greaterThan">
+      <formula>$G20="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="8" priority="10" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="6" priority="11" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="12" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" priority="5" operator="greaterThan">
+      <formula>$G26="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="5" priority="6" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="3" priority="7" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" priority="1" operator="greaterThan">
+      <formula>$G64="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="containsText" dxfId="0" priority="3" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{9006AFB9-6228-4AFF-A906-9639BAA6D151}">
       <formula1>"ACTIVO,BAJA,BAJA IT, VACACIONES"</formula1>
     </dataValidation>

--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="535" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD30EDC-D1B9-46CA-9373-8AF49F8F597B}"/>
+  <xr:revisionPtr revIDLastSave="718" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383F36CD-C323-4902-A6AC-C0EE720A2B23}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="542">
   <si>
     <t>SVO08017-P1-C018</t>
   </si>
@@ -444,9 +444,6 @@
   </si>
   <si>
     <t>MONTSERRAT MARTINEZ BERGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAIMA EL HIFD </t>
   </si>
   <si>
     <t>TIENDA T12 - Igualada</t>
@@ -1158,9 +1155,6 @@
     <t>Lunes a viernes de  7h a 12h</t>
   </si>
   <si>
-    <t>L Mie y V de 6 A 11H</t>
-  </si>
-  <si>
     <t>L A V DE 6:20 a 9,30h</t>
   </si>
   <si>
@@ -1227,9 +1221,6 @@
     <t>SERVICIOS DE MAQUINARIA,  ( MOLINS DE REI )</t>
   </si>
   <si>
-    <t>FALTA SUPLENTE</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO SE CUBRE </t>
   </si>
   <si>
@@ -1302,9 +1293,6 @@
     <t>LIBERTAD MORATO</t>
   </si>
   <si>
-    <t>MARIA PILAR TURRO</t>
-  </si>
-  <si>
     <t>S DIRECCION</t>
   </si>
   <si>
@@ -1560,9 +1548,6 @@
     <t>17/08 al 21/09</t>
   </si>
   <si>
-    <t>18/05 al 29/05</t>
-  </si>
-  <si>
     <t>13/07 al 7/08</t>
   </si>
   <si>
@@ -1645,6 +1630,42 @@
   </si>
   <si>
     <t>03/08 al 31/08</t>
+  </si>
+  <si>
+    <t>animua princesa 15</t>
+  </si>
+  <si>
+    <t>LAMIAH 17/02</t>
+  </si>
+  <si>
+    <t>NURIA LOPEZ GARCIA</t>
+  </si>
+  <si>
+    <t>18/05 al 05/06</t>
+  </si>
+  <si>
+    <t>MARIA PILAR RUIZ ANGEL</t>
+  </si>
+  <si>
+    <t>MARIA CARMEN RODRIGUEZ MORATA</t>
+  </si>
+  <si>
+    <t>L Mie y V de 6 a 1ºh</t>
+  </si>
+  <si>
+    <t>JORDI DELGADO  (NAIMA)</t>
+  </si>
+  <si>
+    <t>L A VIERNES DE 7 A 14H</t>
+  </si>
+  <si>
+    <t>buscar suplente</t>
+  </si>
+  <si>
+    <t>OLGA MARIA CALVO CASATEJAD</t>
+  </si>
+  <si>
+    <t>L A V DE 6:30 A 9:30h</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1889,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1904,11 +1925,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1986,9 +2020,6 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2037,12 +2068,6 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2055,9 +2080,6 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2077,9 +2099,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2123,503 +2142,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <font>
         <color theme="1"/>
@@ -2726,6 +2314,36 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
@@ -2737,6 +2355,426 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2826,7 +2864,37 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF54DD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2856,27 +2924,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFF54DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2896,7 +2944,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF54DD"/>
+          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3264,25 +3312,26 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE113"/>
+  <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="A1:M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="3" width="49.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="1.140625" style="19" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="24.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="31.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="2" customWidth="1"/>
@@ -3292,13 +3341,13 @@
   <sheetData>
     <row r="1" spans="1:31" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>7</v>
@@ -3310,31 +3359,31 @@
         <v>9</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>329</v>
+      <c r="J1" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -3354,173 +3403,167 @@
       <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>209</v>
+      <c r="A2" s="49" t="s">
+        <v>208</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56">
+        <v>44256</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61">
+      <c r="G3" s="36"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="L3" s="56">
         <v>44256</v>
       </c>
-      <c r="M2" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>486</v>
-      </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>492</v>
-      </c>
-      <c r="L3" s="61">
-        <v>44256</v>
-      </c>
-      <c r="M3" s="60" t="s">
-        <v>493</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>486</v>
+      <c r="M3" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>482</v>
       </c>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
-        <v>210</v>
+    <row r="4" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>422</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>33</v>
+        <v>465</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>537</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>129</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61">
-        <v>46360</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>485</v>
-      </c>
-      <c r="O4" s="7"/>
+      <c r="I4" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
-        <v>210</v>
+      <c r="A5" s="50" t="s">
+        <v>209</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>248</v>
+        <v>418</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>20</v>
+        <v>245</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>129</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="42" t="s">
-        <v>386</v>
+      <c r="I5" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>495</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>485</v>
+        <v>330</v>
+      </c>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56">
+        <v>46360</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>481</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
-        <v>211</v>
+      <c r="A6" s="47" t="s">
+        <v>210</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>128</v>
@@ -3528,33 +3571,33 @@
       <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="37"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61">
+        <v>333</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56">
         <v>46286</v>
       </c>
-      <c r="M6" s="60" t="s">
-        <v>497</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>486</v>
+      <c r="M6" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="N6" s="55" t="s">
+        <v>482</v>
       </c>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
-        <v>244</v>
+    <row r="7" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>124</v>
@@ -3569,31 +3612,31 @@
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L7" s="61">
+        <v>410</v>
+      </c>
+      <c r="L7" s="56">
         <v>46399</v>
       </c>
-      <c r="M7" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="N7" s="61" t="s">
-        <v>486</v>
+      <c r="M7" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>482</v>
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
-        <v>244</v>
+    <row r="8" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>45</v>
@@ -3602,37 +3645,37 @@
         <v>128</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="4"/>
       <c r="I8" s="18"/>
       <c r="J8" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L8" s="61">
+        <v>410</v>
+      </c>
+      <c r="L8" s="56">
         <v>44256</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
-        <v>244</v>
+    <row r="9" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>122</v>
@@ -3641,39 +3684,39 @@
         <v>128</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>129</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="57" t="s">
         <v>132</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K9" s="14"/>
-      <c r="L9" s="61">
+      <c r="L9" s="56">
         <v>46192</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:31" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
-        <v>244</v>
+    <row r="10" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>65</v>
@@ -3688,66 +3731,66 @@
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K10" s="14"/>
-      <c r="L10" s="79">
+      <c r="L10" s="73">
         <v>46073</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
-        <v>244</v>
+    <row r="11" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K11" s="14"/>
-      <c r="L11" s="61">
+      <c r="L11" s="56">
         <v>46325</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
-        <v>244</v>
+    <row r="12" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>127</v>
@@ -3756,35 +3799,35 @@
         <v>128</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K12" s="14"/>
-      <c r="L12" s="61">
+      <c r="L12" s="56">
         <v>46395</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
-        <v>244</v>
+    <row r="13" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>26</v>
@@ -3799,31 +3842,31 @@
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="L13" s="61">
+        <v>497</v>
+      </c>
+      <c r="L13" s="56">
         <v>45238</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
-        <v>244</v>
+    <row r="14" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>55</v>
@@ -3838,70 +3881,70 @@
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K14" s="14"/>
-      <c r="L14" s="61">
+      <c r="L14" s="56">
         <v>45645</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
-        <v>244</v>
+    <row r="15" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="56" t="s">
+      <c r="E15" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>129</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="47" t="s">
-        <v>142</v>
+      <c r="I15" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>403</v>
+        <v>541</v>
       </c>
       <c r="K15" s="14"/>
-      <c r="L15" s="61">
+      <c r="L15" s="56">
         <v>46360</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="N15" s="60" t="s">
-        <v>485</v>
+        <v>490</v>
+      </c>
+      <c r="N15" s="55" t="s">
+        <v>481</v>
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
-        <v>244</v>
+    <row r="16" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>88</v>
@@ -3916,31 +3959,31 @@
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L16" s="61">
+        <v>410</v>
+      </c>
+      <c r="L16" s="56">
         <v>45698</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
-        <v>244</v>
+    <row r="17" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>52</v>
@@ -3955,32 +3998,32 @@
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K17" s="14"/>
-      <c r="L17" s="77">
+      <c r="L17" s="71">
         <v>46190</v>
       </c>
-      <c r="M17" s="78" t="s">
-        <v>417</v>
+      <c r="M17" s="72" t="s">
+        <v>414</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
-        <v>244</v>
+    <row r="18" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>128</v>
@@ -3992,35 +4035,35 @@
         <v>129</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="57" t="s">
         <v>133</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L18" s="61">
+        <v>410</v>
+      </c>
+      <c r="L18" s="56">
         <v>46080</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
-        <v>244</v>
+    <row r="19" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>62</v>
@@ -4028,38 +4071,38 @@
       <c r="E19" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="62" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L19" s="61">
+        <v>410</v>
+      </c>
+      <c r="L19" s="56">
         <v>46261</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>244</v>
+    <row r="20" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>115</v>
@@ -4068,74 +4111,74 @@
         <v>128</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="L20" s="79">
+        <v>413</v>
+      </c>
+      <c r="L20" s="73">
         <v>45446</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
-        <v>244</v>
+    <row r="21" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K21" s="14"/>
-      <c r="L21" s="79">
+      <c r="L21" s="73">
         <v>46424</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
-        <v>244</v>
+    <row r="22" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>112</v>
@@ -4150,29 +4193,29 @@
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K22" s="14"/>
-      <c r="L22" s="61">
+      <c r="L22" s="56">
         <v>46317</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
-        <v>244</v>
+    <row r="23" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>5</v>
@@ -4181,39 +4224,39 @@
         <v>128</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="4"/>
       <c r="I23" s="22" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L23" s="61">
+        <v>410</v>
+      </c>
+      <c r="L23" s="56">
         <v>46372</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
-        <v>244</v>
+    <row r="24" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>18</v>
@@ -4221,38 +4264,38 @@
       <c r="E24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="62" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L24" s="61">
+        <v>410</v>
+      </c>
+      <c r="L24" s="56">
         <v>46286</v>
       </c>
-      <c r="M24" s="60" t="s">
-        <v>497</v>
-      </c>
-      <c r="N24" s="60" t="s">
-        <v>486</v>
+      <c r="M24" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="N24" s="55" t="s">
+        <v>482</v>
       </c>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" s="5" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
-        <v>244</v>
+    <row r="25" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>12</v>
@@ -4260,36 +4303,36 @@
       <c r="E25" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="75"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K25" s="14"/>
-      <c r="L25" s="61">
+      <c r="L25" s="56">
         <v>46415</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
-        <v>244</v>
+    <row r="26" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>72</v>
@@ -4298,35 +4341,35 @@
         <v>128</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="4"/>
       <c r="I26" s="14"/>
       <c r="J26" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="K26" s="59"/>
-      <c r="L26" s="61">
+        <v>400</v>
+      </c>
+      <c r="K26" s="54"/>
+      <c r="L26" s="56">
         <v>46140</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
-        <v>244</v>
+    <row r="27" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>109</v>
@@ -4341,29 +4384,29 @@
       <c r="H27" s="4"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K27" s="14"/>
-      <c r="L27" s="79">
+      <c r="L27" s="73">
         <v>46175</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
-        <v>244</v>
+    <row r="28" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>4</v>
@@ -4378,77 +4421,77 @@
         <v>129</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="42" t="s">
-        <v>386</v>
+      <c r="I28" s="41" t="s">
+        <v>384</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L28" s="61">
+        <v>410</v>
+      </c>
+      <c r="L28" s="56">
         <v>46136</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
-        <v>244</v>
+    <row r="29" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="L29" s="61">
+        <v>503</v>
+      </c>
+      <c r="L29" s="56">
         <v>46339</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
-        <v>244</v>
+    <row r="30" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>128</v>
@@ -4460,29 +4503,29 @@
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K30" s="14"/>
-      <c r="L30" s="61">
+      <c r="L30" s="56">
         <v>46268</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
-        <v>244</v>
+    <row r="31" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>117</v>
@@ -4491,37 +4534,37 @@
         <v>128</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>420</v>
+        <v>534</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K31" s="14"/>
-      <c r="L31" s="61">
+      <c r="L31" s="56">
         <v>46014</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15" s="5" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
-        <v>244</v>
+    <row r="32" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>121</v>
@@ -4536,31 +4579,31 @@
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="L32" s="79">
+        <v>507</v>
+      </c>
+      <c r="L32" s="73">
         <v>46119</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>158</v>
+    <row r="33" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>22</v>
@@ -4569,35 +4612,35 @@
         <v>128</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K33" s="14"/>
-      <c r="L33" s="61">
+      <c r="L33" s="56">
         <v>46189</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
-        <v>244</v>
+    <row r="34" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>106</v>
@@ -4612,72 +4655,72 @@
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="L34" s="61">
+        <v>511</v>
+      </c>
+      <c r="L34" s="56">
         <v>46399</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
-        <v>244</v>
+    <row r="35" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="43" t="s">
-        <v>159</v>
+      <c r="E35" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="74" t="s">
+      <c r="G35" s="89" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="47" t="s">
-        <v>142</v>
+      <c r="I35" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>403</v>
+        <v>541</v>
       </c>
       <c r="K35" s="7"/>
-      <c r="L35" s="61">
+      <c r="L35" s="56">
         <v>46420</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
-        <v>244</v>
+    <row r="36" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>98</v>
@@ -4694,29 +4737,29 @@
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K36" s="14"/>
-      <c r="L36" s="79">
+      <c r="L36" s="73">
         <v>46170</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
-        <v>244</v>
+    <row r="37" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>77</v>
@@ -4731,29 +4774,29 @@
       <c r="H37" s="4"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="K37" s="70"/>
-      <c r="L37" s="61">
+        <v>400</v>
+      </c>
+      <c r="K37" s="65"/>
+      <c r="L37" s="56">
         <v>46213</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="48" t="s">
-        <v>244</v>
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>6</v>
@@ -4768,29 +4811,29 @@
       <c r="H38" s="4"/>
       <c r="I38" s="7"/>
       <c r="J38" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K38" s="14"/>
-      <c r="L38" s="61">
+      <c r="L38" s="56">
         <v>46335</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="s">
-        <v>244</v>
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>101</v>
@@ -4805,29 +4848,29 @@
       <c r="H39" s="4"/>
       <c r="I39" s="14"/>
       <c r="J39" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K39" s="14"/>
-      <c r="L39" s="61">
+      <c r="L39" s="56">
         <v>46284</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
-        <v>244</v>
+    <row r="40" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>49</v>
@@ -4838,71 +4881,77 @@
       <c r="F40" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="71"/>
+      <c r="G40" s="66"/>
       <c r="H40" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K40" s="14"/>
-      <c r="L40" s="76">
+      <c r="L40" s="70">
         <v>46427</v>
       </c>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
       <c r="O40" s="14"/>
     </row>
     <row r="41" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>43</v>
+      <c r="A41" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>135</v>
+        <v>475</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>327</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>129</v>
       </c>
       <c r="H41" s="4"/>
-      <c r="I41" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="L41" s="61"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-    </row>
-    <row r="42" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>157</v>
+      <c r="I41" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="L41" s="56">
+        <v>46418</v>
+      </c>
+      <c r="M41" s="55" t="s">
+        <v>526</v>
+      </c>
+      <c r="N41" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>156</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>128</v>
@@ -4911,32 +4960,32 @@
         <v>86</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="72"/>
+      <c r="H42" s="67"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K42" s="14"/>
-      <c r="L42" s="61">
+      <c r="L42" s="56">
         <v>46316</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48" t="s">
-        <v>244</v>
+    <row r="43" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>92</v>
@@ -4951,29 +5000,29 @@
       <c r="H43" s="4"/>
       <c r="I43" s="14"/>
       <c r="J43" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K43" s="14"/>
-      <c r="L43" s="61">
+      <c r="L43" s="56">
         <v>46153</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="s">
-        <v>244</v>
+    <row r="44" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>84</v>
@@ -4988,31 +5037,31 @@
       <c r="H44" s="4"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L44" s="61">
+        <v>410</v>
+      </c>
+      <c r="L44" s="56">
         <v>45157</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48" t="s">
-        <v>244</v>
+    <row r="45" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>81</v>
@@ -5027,29 +5076,29 @@
       <c r="H45" s="4"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K45" s="14"/>
-      <c r="L45" s="61">
+      <c r="L45" s="56">
         <v>46351</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
-        <v>244</v>
+    <row r="46" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>3</v>
@@ -5064,29 +5113,29 @@
       <c r="H46" s="4"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K46" s="14"/>
-      <c r="L46" s="61">
+      <c r="L46" s="56">
         <v>44256</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="1:15" s="5" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48" t="s">
-        <v>244</v>
+    <row r="47" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>0</v>
@@ -5101,33 +5150,33 @@
         <v>129</v>
       </c>
       <c r="H47" s="4"/>
-      <c r="I47" s="62" t="s">
-        <v>149</v>
+      <c r="I47" s="57" t="s">
+        <v>148</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K47" s="14"/>
-      <c r="L47" s="61">
+      <c r="L47" s="56">
         <v>46258</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:15" s="5" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="48" t="s">
-        <v>244</v>
+    <row r="48" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>119</v>
@@ -5142,31 +5191,31 @@
       <c r="H48" s="4"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L48" s="61">
+        <v>410</v>
+      </c>
+      <c r="L48" s="56">
         <v>44256</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="N48" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15" s="5" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="s">
-        <v>244</v>
+    <row r="49" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>39</v>
@@ -5181,29 +5230,29 @@
       <c r="H49" s="4"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K49" s="7"/>
-      <c r="L49" s="79">
+      <c r="L49" s="73">
         <v>46200</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="48" t="s">
-        <v>244</v>
+    <row r="50" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>74</v>
@@ -5218,29 +5267,29 @@
       <c r="H50" s="4"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K50" s="14"/>
-      <c r="L50" s="79">
+      <c r="L50" s="73">
         <v>46176</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="s">
-        <v>244</v>
+    <row r="51" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>123</v>
@@ -5251,33 +5300,33 @@
       <c r="F51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="70"/>
+      <c r="G51" s="65"/>
       <c r="H51" s="4"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K51" s="14"/>
-      <c r="L51" s="61">
+      <c r="L51" s="56">
         <v>46283</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
-        <v>244</v>
+    <row r="52" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>95</v>
@@ -5292,2542 +5341,2526 @@
       <c r="H52" s="4"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L52" s="61">
+        <v>410</v>
+      </c>
+      <c r="L52" s="56">
         <v>46134</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B53" s="64" t="s">
+    <row r="53" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="D53" s="65" t="s">
-        <v>154</v>
+      <c r="C53" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>153</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="28" t="s">
-        <v>153</v>
+      <c r="F53" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K53" s="14"/>
-      <c r="L53" s="79">
+      <c r="L53" s="73">
         <v>46163</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N53" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O53" s="7"/>
     </row>
-    <row r="54" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B54" s="35" t="s">
+    <row r="54" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="D54" s="66" t="s">
+      <c r="C54" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="D54" s="61" t="s">
         <v>79</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="30"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K54" s="14"/>
-      <c r="L54" s="61">
+      <c r="L54" s="56">
         <v>46414</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N54" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O54" s="7"/>
     </row>
-    <row r="55" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="34" t="s">
+    <row r="55" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="D55" s="65" t="s">
+      <c r="C55" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="D55" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="7"/>
+      <c r="E55" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>484</v>
+      </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="47" t="s">
-        <v>142</v>
+      <c r="I55" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="L55" s="61"/>
+        <v>486</v>
+      </c>
+      <c r="L55" s="56"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
       <c r="O55" s="7"/>
     </row>
-    <row r="56" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" s="34" t="s">
+    <row r="56" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="D56" s="66" t="s">
+      <c r="C56" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="D56" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="7"/>
+      <c r="E56" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>535</v>
+      </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="47" t="s">
-        <v>142</v>
+      <c r="I56" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="L56" s="61"/>
+        <v>486</v>
+      </c>
+      <c r="L56" s="56"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
       <c r="O56" s="7"/>
     </row>
-    <row r="57" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B57" s="64" t="s">
+    <row r="57" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B57" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="D57" s="65" t="s">
+      <c r="C57" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D57" s="60" t="s">
         <v>68</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F57" s="25"/>
-      <c r="G57" s="69"/>
+      <c r="G57" s="64"/>
       <c r="H57" s="4"/>
       <c r="I57" s="25"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
       <c r="O57" s="7"/>
     </row>
-    <row r="58" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>198</v>
+    <row r="58" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="F58" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G58" s="36"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="41" t="s">
-        <v>384</v>
-      </c>
+      <c r="I58" s="36"/>
       <c r="J58" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L58" s="61">
-        <v>44256</v>
-      </c>
-      <c r="M58" s="60" t="s">
-        <v>530</v>
-      </c>
-      <c r="N58" s="60" t="s">
-        <v>485</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="K58" s="55"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
       <c r="O58" s="7"/>
     </row>
-    <row r="59" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F59" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="47" t="s">
-        <v>142</v>
-      </c>
+    <row r="59" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G59" s="66"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
       <c r="J59" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K59" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="L59" s="61">
-        <v>46418</v>
-      </c>
-      <c r="M59" s="60" t="s">
-        <v>531</v>
-      </c>
-      <c r="N59" s="60" t="s">
-        <v>485</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L59" s="56">
+        <v>46102</v>
+      </c>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
       <c r="O59" s="7"/>
     </row>
-    <row r="60" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F60" s="57" t="s">
-        <v>301</v>
+    <row r="60" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>300</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>129</v>
       </c>
       <c r="H60" s="4"/>
-      <c r="I60" s="44" t="s">
+      <c r="I60" s="87" t="s">
+        <v>539</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K60" s="55"/>
+      <c r="L60" s="56">
+        <v>44256</v>
+      </c>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G61" s="63"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K61" s="55"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G62" s="36"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K62" s="55"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G63" s="36"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L63" s="56"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G64" s="36"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L64" s="56"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G65" s="78"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L65" s="56"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G66" s="36"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L66" s="56"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G67" s="36"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L67" s="56"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G68" s="36"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L68" s="56"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="7"/>
+    </row>
+    <row r="69" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G69" s="36"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L69" s="56"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="7"/>
+    </row>
+    <row r="70" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G70" s="36"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L70" s="56"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="7"/>
+    </row>
+    <row r="71" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="G71" s="36"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K71" s="55"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="7"/>
+    </row>
+    <row r="72" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G72" s="36"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K72" s="55"/>
+      <c r="L72" s="56">
+        <v>45540</v>
+      </c>
+      <c r="M72" s="55" t="s">
+        <v>524</v>
+      </c>
+      <c r="N72" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L73" s="56"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G74" s="36"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K74" s="55"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G75" s="36"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K75" s="55"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" spans="1:15" s="5" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="G76" s="36"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="K76" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="L76" s="56">
+        <v>46305</v>
+      </c>
+      <c r="M76" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="N76" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="O76" s="7"/>
+    </row>
+    <row r="77" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G77" s="36"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K77" s="55"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="7"/>
+    </row>
+    <row r="78" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G78" s="36"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K78" s="55"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="7"/>
+    </row>
+    <row r="79" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G79" s="36"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K79" s="55"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="7"/>
+    </row>
+    <row r="80" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L80" s="56"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="7"/>
+    </row>
+    <row r="81" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G81" s="36"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K81" s="55"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="7"/>
+    </row>
+    <row r="82" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G82" s="36"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K82" s="55"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="7"/>
+    </row>
+    <row r="83" spans="1:15" s="5" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="88" t="s">
+        <v>384</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L83" s="56" t="s">
+        <v>492</v>
+      </c>
+      <c r="M83" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="N83" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="O83" s="7"/>
+    </row>
+    <row r="84" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G84" s="36"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K84" s="55"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="7"/>
+    </row>
+    <row r="85" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L85" s="56"/>
+      <c r="M85" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="N85" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="O85" s="7"/>
+    </row>
+    <row r="86" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G86" s="36"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K86" s="55"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="7"/>
+    </row>
+    <row r="87" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G87" s="36"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K87" s="55"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="7"/>
+    </row>
+    <row r="88" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K88" s="55"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="7"/>
+    </row>
+    <row r="89" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K89" s="55"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="7"/>
+    </row>
+    <row r="90" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="J90" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="K90" s="55"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="55"/>
+      <c r="O90" s="7"/>
+    </row>
+    <row r="91" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="G91" s="36"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K91" s="55"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="55"/>
+      <c r="N91" s="55"/>
+      <c r="O91" s="7"/>
+    </row>
+    <row r="92" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="J60" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K60" s="60"/>
-      <c r="L60" s="61">
+      <c r="C92" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F92" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="G92" s="36"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K92" s="55" t="s">
+        <v>396</v>
+      </c>
+      <c r="L92" s="56"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="7"/>
+    </row>
+    <row r="93" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="G93" s="36"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K93" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="L93" s="56">
+        <v>46305</v>
+      </c>
+      <c r="M93" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="N93" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="O93" s="7"/>
+    </row>
+    <row r="94" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="G94" s="36"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K94" s="55"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="7"/>
+    </row>
+    <row r="95" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="G95" s="36"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K95" s="55"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="55"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="7"/>
+    </row>
+    <row r="96" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F96" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="G96" s="36"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K96" s="55"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="55"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="7"/>
+    </row>
+    <row r="97" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F97" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97" s="4"/>
+      <c r="I97" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K97" s="55"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="55"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="7"/>
+    </row>
+    <row r="98" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F98" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L98" s="56">
         <v>44256</v>
       </c>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60" t="s">
-        <v>485</v>
-      </c>
-      <c r="O60" s="7"/>
-    </row>
-    <row r="61" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="51" t="s">
+      <c r="M98" s="55" t="s">
+        <v>525</v>
+      </c>
+      <c r="N98" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="O98" s="7"/>
+    </row>
+    <row r="99" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K99" s="55"/>
+      <c r="L99" s="56">
+        <v>46394</v>
+      </c>
+      <c r="M99" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="N99" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="O99" s="7"/>
+    </row>
+    <row r="100" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="G100" s="36"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K100" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L100" s="56"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="7"/>
+    </row>
+    <row r="101" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="B61" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F61" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="G61" s="20" t="s">
+      <c r="B101" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="G101" s="36"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="80"/>
+      <c r="J101" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K101" s="55"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="55"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="7"/>
+    </row>
+    <row r="102" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K102" s="55"/>
+      <c r="L102" s="56"/>
+      <c r="M102" s="55"/>
+      <c r="N102" s="55"/>
+      <c r="O102" s="7"/>
+    </row>
+    <row r="103" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="G103" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K61" s="60"/>
-      <c r="L61" s="61">
-        <v>46394</v>
-      </c>
-      <c r="M61" s="60" t="s">
-        <v>414</v>
-      </c>
-      <c r="N61" s="60" t="s">
-        <v>485</v>
-      </c>
-      <c r="O61" s="7"/>
-    </row>
-    <row r="62" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="31" t="s">
+      <c r="H103" s="4"/>
+      <c r="I103" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K103" s="55"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="55"/>
+      <c r="N103" s="55"/>
+      <c r="O103" s="7"/>
+    </row>
+    <row r="104" spans="1:15" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F104" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="G104" s="36"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K104" s="55"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="55"/>
+      <c r="N104" s="55"/>
+      <c r="O104" s="7"/>
+    </row>
+    <row r="105" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F105" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="G105" s="36"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K105" s="55"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="55"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F106" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="G106" s="36"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K106" s="55"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="55"/>
+      <c r="N106" s="55"/>
+      <c r="O106" s="7"/>
+    </row>
+    <row r="107" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H107" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="I107" s="85" t="s">
+        <v>540</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L107" s="56"/>
+      <c r="M107" s="55"/>
+      <c r="N107" s="55"/>
+      <c r="O107" s="7"/>
+    </row>
+    <row r="108" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="D62" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G62" s="37"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K62" s="60"/>
-      <c r="L62" s="61">
-        <v>45540</v>
-      </c>
-      <c r="M62" s="60" t="s">
-        <v>529</v>
-      </c>
-      <c r="N62" s="60" t="s">
-        <v>486</v>
-      </c>
-      <c r="O62" s="7"/>
-    </row>
-    <row r="63" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G63" s="37"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K63" s="60" t="s">
-        <v>533</v>
-      </c>
-      <c r="L63" s="61">
-        <v>46305</v>
-      </c>
-      <c r="M63" s="60" t="s">
-        <v>534</v>
-      </c>
-      <c r="N63" s="60" t="s">
-        <v>486</v>
-      </c>
-      <c r="O63" s="7"/>
-    </row>
-    <row r="64" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G64" s="37"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="K64" s="60" t="s">
-        <v>533</v>
-      </c>
-      <c r="L64" s="61">
-        <v>46305</v>
-      </c>
-      <c r="M64" s="60" t="s">
-        <v>534</v>
-      </c>
-      <c r="N64" s="60" t="s">
-        <v>486</v>
-      </c>
-      <c r="O64" s="7"/>
-    </row>
-    <row r="65" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F65" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="G65" s="20" t="s">
+      <c r="D108" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F108" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="G108" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K65" s="60"/>
-      <c r="L65" s="61">
+      <c r="H108" s="4"/>
+      <c r="I108" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L108" s="56"/>
+      <c r="M108" s="83"/>
+      <c r="N108" s="83"/>
+      <c r="O108" s="82"/>
+    </row>
+    <row r="109" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F109" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G109" s="63"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K109" s="55"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="55"/>
+      <c r="N109" s="55"/>
+      <c r="O109" s="7"/>
+    </row>
+    <row r="110" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F110" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="G110" s="36"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K110" s="55"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="55"/>
+      <c r="N110" s="55"/>
+      <c r="O110" s="7"/>
+    </row>
+    <row r="111" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E111" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F111" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="G111" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K111" s="55"/>
+      <c r="L111" s="56">
         <v>46102</v>
       </c>
-      <c r="M65" s="60"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="7"/>
-    </row>
-    <row r="66" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F66" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K66" s="60"/>
-      <c r="L66" s="61">
-        <v>46102</v>
-      </c>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="7"/>
-    </row>
-    <row r="67" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K67" s="60"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="7"/>
-    </row>
-    <row r="68" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="K68" s="60"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="7"/>
-    </row>
-    <row r="69" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L69" s="61"/>
-      <c r="M69" s="60" t="s">
-        <v>485</v>
-      </c>
-      <c r="N69" s="60" t="s">
-        <v>485</v>
-      </c>
-      <c r="O69" s="7"/>
-    </row>
-    <row r="70" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="G70" s="37"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K70" s="60"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="60"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="7"/>
-    </row>
-    <row r="71" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="G71" s="37"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K71" s="60"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="7"/>
-    </row>
-    <row r="72" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="51" t="s">
+      <c r="M111" s="55"/>
+      <c r="N111" s="55"/>
+      <c r="O111" s="7"/>
+    </row>
+    <row r="112" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B112" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="D72" s="31" t="s">
+      <c r="C112" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D112" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L72" s="61"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="7"/>
-    </row>
-    <row r="73" spans="1:15" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G73" s="37"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K73" s="60"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="7"/>
-    </row>
-    <row r="74" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G74" s="37"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K74" s="60"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="60"/>
-      <c r="N74" s="60"/>
-      <c r="O74" s="7"/>
-    </row>
-    <row r="75" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G75" s="37"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K75" s="60"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="60"/>
-      <c r="O75" s="7"/>
-    </row>
-    <row r="76" spans="1:15" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="G76" s="37"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="K76" s="60"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="7"/>
-    </row>
-    <row r="77" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="G77" s="37"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K77" s="60"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="60"/>
-      <c r="N77" s="60"/>
-      <c r="O77" s="7"/>
-    </row>
-    <row r="78" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B78" s="31" t="s">
+      <c r="E112" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="63"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="63"/>
+      <c r="J112" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K112" s="55"/>
+      <c r="L112" s="56"/>
+      <c r="M112" s="55"/>
+      <c r="N112" s="55"/>
+      <c r="O112" s="68" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="B113" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C78" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="D78" s="31" t="s">
+      <c r="C113" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="D113" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="37"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="K78" s="60"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="60"/>
-      <c r="N78" s="60"/>
-      <c r="O78" s="73" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G79" s="37"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K79" s="60"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="60"/>
-      <c r="O79" s="7"/>
-    </row>
-    <row r="80" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F80" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K80" s="60"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="60"/>
-      <c r="O80" s="7"/>
-    </row>
-    <row r="81" spans="1:15" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.3">
-      <c r="A81" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K81" s="60"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="60"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="7"/>
-    </row>
-    <row r="82" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G82" s="37"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K82" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L82" s="61"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="60"/>
-      <c r="O82" s="7"/>
-    </row>
-    <row r="83" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F83" s="83" t="s">
-        <v>307</v>
-      </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K83" s="60"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="7"/>
-    </row>
-    <row r="84" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="K84" s="60"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="60"/>
-      <c r="N84" s="60"/>
-      <c r="O84" s="7"/>
-    </row>
-    <row r="85" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D85" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H85" s="4"/>
-      <c r="I85" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K85" s="60"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="60"/>
-      <c r="N85" s="60"/>
-      <c r="O85" s="7"/>
-    </row>
-    <row r="86" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K86" s="60"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="60"/>
-      <c r="O86" s="7"/>
-    </row>
-    <row r="87" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="G87" s="37"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K87" s="60"/>
-      <c r="L87" s="61"/>
-      <c r="M87" s="60"/>
-      <c r="N87" s="60"/>
-      <c r="O87" s="7"/>
-    </row>
-    <row r="88" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K88" s="60"/>
-      <c r="L88" s="61"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="7"/>
-    </row>
-    <row r="89" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="G89" s="37"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K89" s="60"/>
-      <c r="L89" s="61"/>
-      <c r="M89" s="60"/>
-      <c r="N89" s="60"/>
-      <c r="O89" s="7"/>
-    </row>
-    <row r="90" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F90" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="G90" s="37"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K90" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L90" s="61"/>
-      <c r="M90" s="60"/>
-      <c r="N90" s="60"/>
-      <c r="O90" s="7"/>
-    </row>
-    <row r="91" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G91" s="37"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K91" s="60"/>
-      <c r="L91" s="61"/>
-      <c r="M91" s="60"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="7"/>
-    </row>
-    <row r="92" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G92" s="37"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K92" s="60"/>
-      <c r="L92" s="61"/>
-      <c r="M92" s="60"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="7"/>
-    </row>
-    <row r="93" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B93" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F93" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="G93" s="37"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K93" s="60"/>
-      <c r="L93" s="61"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="7"/>
-    </row>
-    <row r="94" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="D94" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G94" s="37"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K94" s="60" t="s">
-        <v>399</v>
-      </c>
-      <c r="L94" s="61"/>
-      <c r="M94" s="60"/>
-      <c r="N94" s="60"/>
-      <c r="O94" s="7"/>
-    </row>
-    <row r="95" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="K95" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L95" s="61"/>
-      <c r="M95" s="60"/>
-      <c r="N95" s="60"/>
-      <c r="O95" s="7"/>
-    </row>
-    <row r="96" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="D96" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L96" s="61"/>
-      <c r="M96" s="60"/>
-      <c r="N96" s="60"/>
-      <c r="O96" s="7"/>
-    </row>
-    <row r="97" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D97" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F97" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="G97" s="37"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K97" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L97" s="61"/>
-      <c r="M97" s="60"/>
-      <c r="N97" s="60"/>
-      <c r="O97" s="7"/>
-    </row>
-    <row r="98" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G98" s="37"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K98" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L98" s="61"/>
-      <c r="M98" s="60"/>
-      <c r="N98" s="60"/>
-      <c r="O98" s="7"/>
-    </row>
-    <row r="99" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G99" s="37"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K99" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L99" s="61"/>
-      <c r="M99" s="60"/>
-      <c r="N99" s="60"/>
-      <c r="O99" s="7"/>
-    </row>
-    <row r="100" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C100" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G100" s="37"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K100" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L100" s="61"/>
-      <c r="M100" s="60"/>
-      <c r="N100" s="60"/>
-      <c r="O100" s="7"/>
-    </row>
-    <row r="101" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B101" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G101" s="37"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K101" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L101" s="61"/>
-      <c r="M101" s="60"/>
-      <c r="N101" s="60"/>
-      <c r="O101" s="7"/>
-    </row>
-    <row r="102" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D102" s="31"/>
-      <c r="E102" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G102" s="37"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K102" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L102" s="61"/>
-      <c r="M102" s="60"/>
-      <c r="N102" s="60"/>
-      <c r="O102" s="7"/>
-    </row>
-    <row r="103" spans="1:15" ht="39" x14ac:dyDescent="0.3">
-      <c r="A103" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G103" s="37"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K103" s="60"/>
-      <c r="L103" s="61"/>
-      <c r="M103" s="60"/>
-      <c r="N103" s="60"/>
-      <c r="O103" s="7"/>
-    </row>
-    <row r="104" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F104" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="G104" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H104" s="4"/>
-      <c r="I104" s="87" t="s">
-        <v>396</v>
-      </c>
-      <c r="J104" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="K104" s="60"/>
-      <c r="L104" s="61"/>
-      <c r="M104" s="60"/>
-      <c r="N104" s="60"/>
-      <c r="O104" s="7"/>
-    </row>
-    <row r="105" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="D105" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F105" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="G105" s="37"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K105" s="60"/>
-      <c r="L105" s="61"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="60"/>
-      <c r="O105" s="7"/>
-    </row>
-    <row r="106" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F106" s="84" t="s">
-        <v>293</v>
-      </c>
-      <c r="G106" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H106" s="4"/>
-      <c r="I106" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K106" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L106" s="61"/>
-      <c r="M106" s="60"/>
-      <c r="N106" s="60"/>
-      <c r="O106" s="7"/>
-    </row>
-    <row r="107" spans="1:15" ht="39" x14ac:dyDescent="0.3">
-      <c r="A107" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="B107" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="C107" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G107" s="37"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="K107" s="60"/>
-      <c r="L107" s="61"/>
-      <c r="M107" s="60"/>
-      <c r="N107" s="60"/>
-      <c r="O107" s="7"/>
-    </row>
-    <row r="108" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B108" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G108" s="37"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K108" s="60"/>
-      <c r="L108" s="61"/>
-      <c r="M108" s="86"/>
-      <c r="N108" s="86"/>
-      <c r="O108" s="85"/>
-    </row>
-    <row r="109" spans="1:15" ht="39" x14ac:dyDescent="0.3">
-      <c r="A109" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="D109" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F109" s="82" t="s">
-        <v>299</v>
-      </c>
-      <c r="G109" s="68"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="68"/>
-      <c r="J109" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K109" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="L109" s="61"/>
-      <c r="M109" s="60"/>
-      <c r="N109" s="60"/>
-      <c r="O109" s="7"/>
-    </row>
-    <row r="110" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="B110" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G110" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K110" s="60"/>
-      <c r="L110" s="61"/>
-      <c r="M110" s="60"/>
-      <c r="N110" s="60"/>
-      <c r="O110" s="7"/>
-    </row>
-    <row r="111" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="C111" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G111" s="37"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K111" s="60"/>
-      <c r="L111" s="61"/>
-      <c r="M111" s="60"/>
-      <c r="N111" s="60"/>
-      <c r="O111" s="7"/>
-    </row>
-    <row r="112" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G112" s="68"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="68"/>
-      <c r="J112" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K112" s="60"/>
-      <c r="L112" s="61"/>
-      <c r="M112" s="60"/>
-      <c r="N112" s="60"/>
-      <c r="O112" s="7"/>
-    </row>
-    <row r="113" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B113" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E113" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F113" s="7"/>
+      <c r="E113" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>532</v>
+      </c>
       <c r="G113" s="7"/>
       <c r="H113" s="4"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K113" s="60"/>
-      <c r="L113" s="61"/>
-      <c r="M113" s="60"/>
-      <c r="N113" s="60"/>
+        <v>375</v>
+      </c>
+      <c r="K113" s="55"/>
+      <c r="L113" s="56"/>
+      <c r="M113" s="55"/>
+      <c r="N113" s="55"/>
       <c r="O113" s="7"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE113" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
     <filterColumn colId="0">
       <filters>
-        <filter val="ACCENTURE"/>
-        <filter val="AGBAR"/>
-        <filter val="AICRAG"/>
-        <filter val="AMERICOLD"/>
-        <filter val="ANIMUA"/>
-        <filter val="ANOREXIA"/>
-        <filter val="ASSOC DISCA"/>
-        <filter val="BLINDADOS"/>
-        <filter val="EDAG CORNELLA"/>
-        <filter val="EDAG MARTORELL"/>
-        <filter val="ELECTRO"/>
-        <filter val="ELHIS"/>
-        <filter val="EMETRES"/>
-        <filter val="FICOSA"/>
-        <filter val="FILANTROPICO"/>
-        <filter val="FUN LABORAL CONS"/>
-        <filter val="GAM"/>
-        <filter val="GAS N2TROGEN"/>
-        <filter val="GES"/>
-        <filter val="GESTIN"/>
-        <filter val="HANES"/>
-        <filter val="HEMISPEHRE"/>
-        <filter val="idom cornella"/>
-        <filter val="IM3"/>
-        <filter val="INNOIT"/>
-        <filter val="MEDIAMARTKET"/>
-        <filter val="OBRES I SERVEIS"/>
-        <filter val="PUMA"/>
-        <filter val="QUINERA"/>
-        <filter val="RESTO"/>
-        <filter val="RIING"/>
-        <filter val="SEMYDINAMICS"/>
-        <filter val="TINTORE"/>
-        <filter val="UNISONO"/>
-        <filter val="VEOLIA"/>
+        <filter val="ALDI"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:AE113">
-      <sortCondition ref="F1:F113"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AE111">
+      <sortCondition ref="E1:E113"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D100 I113:I119">
-    <cfRule type="containsText" dxfId="74" priority="387" stopIfTrue="1" operator="containsText" text="BAJA IT">
+  <conditionalFormatting sqref="D100 I113:I114 I117:I119">
+    <cfRule type="containsText" dxfId="75" priority="419" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",D100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="388" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="74" priority="420" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",D100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="72" priority="379" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="cellIs" priority="414" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="413" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="412" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="411" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="380" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="381" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F71)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="382" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="69" priority="111" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="cellIs" priority="146" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="145" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="144" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",F75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="143" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="112" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="113" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F75)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="114" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
-    <cfRule type="containsText" dxfId="66" priority="375" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="376" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F93)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="377" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" priority="383" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" priority="384" operator="greaterThan">
-      <formula>$H100="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F100 I108 F97:F98 I113:I119 J95:J112 I75:I106">
-    <cfRule type="containsText" dxfId="64" priority="363" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F106">
-    <cfRule type="containsText" dxfId="63" priority="366" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="367" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="368" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F105)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="369" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113">
-    <cfRule type="containsText" dxfId="60" priority="29" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="67" priority="61" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",F113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="30" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="cellIs" priority="64" operator="greaterThan">
+      <formula>#REF!="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="63" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",F113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="62" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",F113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="31" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F113)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="32" operator="greaterThan">
-      <formula>#REF!="Activo"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93:G93">
-    <cfRule type="containsText" dxfId="57" priority="49" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F93)))</formula>
+  <conditionalFormatting sqref="G52 I52">
+    <cfRule type="containsText" dxfId="64" priority="152" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",G52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
-    <cfRule type="containsText" dxfId="56" priority="353" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F108)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="354" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F108)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52 F108:G108 I52">
-    <cfRule type="containsText" dxfId="54" priority="120" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52 I113:I118 J96:J112 I75:I106">
-    <cfRule type="cellIs" priority="119" operator="greaterThan">
-      <formula>$H52="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:G61 G64 G95:G96 D100">
-    <cfRule type="containsText" dxfId="53" priority="386" stopIfTrue="1" operator="containsText" text="VACACIONES">
+  <conditionalFormatting sqref="G53:G59 G61 G64 G95:G96 D100">
+    <cfRule type="containsText" dxfId="63" priority="418" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",D53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:G71">
-    <cfRule type="containsText" dxfId="52" priority="133" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="62" priority="165" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",G69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="134" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="61" priority="166" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",G69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G104:G106 G69:G75">
-    <cfRule type="cellIs" priority="117" operator="greaterThan">
+  <conditionalFormatting sqref="G69:G75 G104:G106">
+    <cfRule type="containsText" dxfId="60" priority="150" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",G69)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="149" operator="greaterThan">
       <formula>$H69="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="118" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",G69)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J95:J112 G72:G81 I75:I106">
-    <cfRule type="containsText" dxfId="49" priority="116" stopIfTrue="1" operator="containsText" text="BAJA">
+  <conditionalFormatting sqref="G72:G81 I85:I106">
+    <cfRule type="containsText" dxfId="59" priority="147" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",G72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="148" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",G72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J95:J112 G72:G81 I75:I106">
-    <cfRule type="containsText" dxfId="48" priority="115" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",G72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:G81">
-    <cfRule type="cellIs" priority="105" operator="greaterThan">
+    <cfRule type="containsText" dxfId="57" priority="138" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",G76)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="137" operator="greaterThan">
       <formula>$H76="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="106" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",G76)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84:G86">
-    <cfRule type="containsText" dxfId="46" priority="137" stopIfTrue="1" operator="containsText" text="BAJA IT">
+  <conditionalFormatting sqref="G84 G86">
+    <cfRule type="containsText" dxfId="56" priority="170" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",G84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="169" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",G84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="138" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",G84)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84:G92">
-    <cfRule type="containsText" dxfId="44" priority="98" stopIfTrue="1" operator="containsText" text="VACACIONES">
+  <conditionalFormatting sqref="G84 G86:G89">
+    <cfRule type="containsText" dxfId="54" priority="130" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",G84)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84:G94">
-    <cfRule type="cellIs" priority="48" operator="greaterThan">
+  <conditionalFormatting sqref="G86:G89 G91:G94 G84">
+    <cfRule type="cellIs" priority="80" operator="greaterThan">
       <formula>$H84="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G93">
-    <cfRule type="containsText" dxfId="43" priority="46" stopIfTrue="1" operator="containsText" text="BAJA IT">
+  <conditionalFormatting sqref="G87:G89 G91:G93">
+    <cfRule type="containsText" dxfId="53" priority="79" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",G87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="78" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",G87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="47" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",G87)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93">
+    <cfRule type="containsText" dxfId="51" priority="81" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",G91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94">
-    <cfRule type="containsText" dxfId="41" priority="53" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="50" priority="85" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",G94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94:G96">
-    <cfRule type="containsText" dxfId="40" priority="51" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="49" priority="83" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",G94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="52" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="48" priority="84" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",G94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
-    <cfRule type="containsText" dxfId="38" priority="87" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",G98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="88" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",G98)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="89" operator="greaterThan">
-      <formula>$H98="Activo"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="90" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",G98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102">
-    <cfRule type="cellIs" priority="59" operator="greaterThan">
+    <cfRule type="containsText" dxfId="47" priority="92" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",G102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="94" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",G102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="93" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",G102)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="91" operator="greaterThan">
       <formula>$H102="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="60" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",G102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="61" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",G102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="62" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",G102)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
-    <cfRule type="cellIs" priority="38" operator="greaterThan">
-      <formula>$H108="Activo"</formula>
+  <conditionalFormatting sqref="G104:G106 I108">
+    <cfRule type="containsText" dxfId="44" priority="397" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",G104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:I65 I75:I82">
+    <cfRule type="containsText" dxfId="43" priority="12" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",H65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="11" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",H65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:I65">
+    <cfRule type="cellIs" priority="9" operator="greaterThan">
+      <formula>$H65="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="10" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" priority="13" operator="greaterThan">
+    <cfRule type="containsText" dxfId="40" priority="46" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="45" operator="greaterThan">
       <formula>$H9="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="14" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="39" priority="48" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="47" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",I9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" priority="9" operator="greaterThan">
+    <cfRule type="containsText" dxfId="37" priority="43" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I19)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="41" operator="greaterThan">
       <formula>$H19="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="10" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="36" priority="42" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="11" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="12" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="35" priority="44" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" priority="5" operator="greaterThan">
+    <cfRule type="containsText" dxfId="34" priority="38" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I25)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="37" operator="greaterThan">
       <formula>$H25="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="6" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="7" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="33" priority="40" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="39" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",I25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="8" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" priority="17" operator="greaterThan">
+    <cfRule type="containsText" dxfId="31" priority="52" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I36)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="49" operator="greaterThan">
       <formula>$H36="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="18" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="30" priority="50" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="19" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="29" priority="51" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",I36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="20" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I36)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52 G52:G61 G64">
-    <cfRule type="containsText" dxfId="20" priority="121" stopIfTrue="1" operator="containsText" text="BAJA IT">
+  <conditionalFormatting sqref="I52 G52:G59 G61 G64">
+    <cfRule type="containsText" dxfId="28" priority="154" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",G52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="153" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",G52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="122" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",G52)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52 G53:G59 G61 G64 G95:G96 J76:J81 J83:J92 J71:J72 D100 I108">
+    <cfRule type="cellIs" priority="384" operator="greaterThan">
+      <formula>$H52="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="containsText" dxfId="26" priority="5" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I60)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="greaterThan">
+      <formula>$G60="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="7" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="8" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" priority="1" operator="greaterThan">
+    <cfRule type="containsText" dxfId="23" priority="36" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",I63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="35" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",I63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="34" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I63)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="33" operator="greaterThan">
       <formula>$H63="Activo"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I63)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97:F98 F100 G104:G106 I108">
-    <cfRule type="containsText" dxfId="15" priority="365" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",F97)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97:F98 F100 I108 G104:G106">
-    <cfRule type="containsText" dxfId="14" priority="364" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",F97)))</formula>
+  <conditionalFormatting sqref="I85:I106 J96:J106 I75:I82 G52 I113:I114 I117:I118">
+    <cfRule type="cellIs" priority="151" operator="greaterThan">
+      <formula>$H52="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="containsText" dxfId="13" priority="144" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="20" priority="176" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",I93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" priority="159" operator="greaterThan">
+    <cfRule type="cellIs" priority="191" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" priority="72" operator="greaterThan">
       <formula>$H96="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" priority="73" operator="greaterThan">
       <formula>$H98="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" priority="34" operator="greaterThan">
-      <formula>$H111="Activo"</formula>
+  <conditionalFormatting sqref="I108 G104:G106">
+    <cfRule type="containsText" dxfId="19" priority="396" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",G104)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111">
-    <cfRule type="containsText" dxfId="12" priority="37" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",I111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I111">
-    <cfRule type="containsText" dxfId="11" priority="35" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",I111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="36" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",I111)))</formula>
+  <conditionalFormatting sqref="I108 J95:J106 I85:I106 I117:I119 I75:I82 I113:I114">
+    <cfRule type="containsText" dxfId="18" priority="395" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",I75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" priority="65" operator="greaterThan">
       <formula>$H110="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" priority="149" operator="greaterThan">
+    <cfRule type="cellIs" priority="181" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59 J76:J94">
-    <cfRule type="containsText" dxfId="9" priority="259" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",J59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="260" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",J59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="containsText" dxfId="7" priority="258" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="17" priority="290" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",J59)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="291" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",J59)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="293" operator="greaterThan">
+      <formula>$H59="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="292" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",J59)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" priority="261" operator="greaterThan">
-      <formula>$H59="Activo"</formula>
+  <conditionalFormatting sqref="J61:J64 J67:J74">
+    <cfRule type="containsText" dxfId="14" priority="392" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",J61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="393" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",J61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61:J74">
-    <cfRule type="containsText" dxfId="6" priority="359" stopIfTrue="1" operator="containsText" text="VACACIONES">
+  <conditionalFormatting sqref="J61:J65">
+    <cfRule type="cellIs" priority="20" operator="greaterThan">
+      <formula>$H61="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65:J66">
+    <cfRule type="containsText" dxfId="12" priority="16" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",J65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",J65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",J65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66:J69">
+    <cfRule type="cellIs" priority="13" operator="greaterThan">
+      <formula>$H66="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67:J74 J61:J64">
+    <cfRule type="containsText" dxfId="9" priority="391" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",J61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="360" stopIfTrue="1" operator="containsText" text="BAJA IT">
-      <formula>NOT(ISERROR(SEARCH("BAJA IT",J61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="361" stopIfTrue="1" operator="containsText" text="BAJA">
-      <formula>NOT(ISERROR(SEARCH("BAJA",J61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70">
-    <cfRule type="cellIs" priority="253" operator="greaterThan">
+    <cfRule type="cellIs" priority="285" operator="greaterThan">
       <formula>$H69="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" priority="236" operator="greaterThan">
+    <cfRule type="cellIs" priority="268" operator="greaterThan">
       <formula>$H72="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="cellIs" priority="392" operator="greaterThan">
+    <cfRule type="cellIs" priority="424" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76:J92 I52 G53:G61 G64 F108 G95:G96 J61:J69 J71:J72 D100 F100 I108">
-    <cfRule type="cellIs" priority="352" operator="greaterThan">
-      <formula>$H52="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:J94">
-    <cfRule type="containsText" dxfId="3" priority="245" stopIfTrue="1" operator="containsText" text="VACACIONES">
+    <cfRule type="containsText" dxfId="8" priority="26" stopIfTrue="1" operator="containsText" text="VACACIONES">
       <formula>NOT(ISERROR(SEARCH("VACACIONES",J76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76:J106">
+    <cfRule type="containsText" dxfId="7" priority="27" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",J76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="28" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",J76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82">
+    <cfRule type="cellIs" priority="25" operator="greaterThan">
+      <formula>$H82="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93">
-    <cfRule type="cellIs" priority="270" operator="greaterThan">
+    <cfRule type="cellIs" priority="302" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94">
-    <cfRule type="cellIs" priority="385" operator="greaterThan">
+    <cfRule type="cellIs" priority="417" operator="greaterThan">
       <formula>$H94="Activo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" priority="271" operator="greaterThan">
+    <cfRule type="cellIs" priority="303" operator="greaterThan">
       <formula>$H93="Activo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107">
+    <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",J107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107:J112">
+    <cfRule type="cellIs" priority="4" operator="greaterThan">
+      <formula>$H107="Activo"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" operator="containsText" text="BAJA">
+      <formula>NOT(ISERROR(SEARCH("BAJA",J107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="BAJA IT">
+      <formula>NOT(ISERROR(SEARCH("BAJA IT",J107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J108:J113">
+    <cfRule type="containsText" dxfId="2" priority="172" stopIfTrue="1" operator="containsText" text="VACACIONES">
+      <formula>NOT(ISERROR(SEARCH("VACACIONES",J108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113">
-    <cfRule type="cellIs" priority="240" operator="greaterThan">
+    <cfRule type="cellIs" priority="272" operator="greaterThan">
       <formula>#REF!="Activo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J113">
-    <cfRule type="containsText" dxfId="2" priority="140" stopIfTrue="1" operator="containsText" text="VACACIONES">
-      <formula>NOT(ISERROR(SEARCH("VACACIONES",J113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="141" stopIfTrue="1" operator="containsText" text="BAJA IT">
+    <cfRule type="containsText" dxfId="1" priority="173" stopIfTrue="1" operator="containsText" text="BAJA IT">
       <formula>NOT(ISERROR(SEARCH("BAJA IT",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="142" stopIfTrue="1" operator="containsText" text="BAJA">
+    <cfRule type="containsText" dxfId="0" priority="174" stopIfTrue="1" operator="containsText" text="BAJA">
       <formula>NOT(ISERROR(SEARCH("BAJA",J113)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7839,7 +7872,7 @@
       <formula1>"MAÑANA,TARDE,NOCHE,SÁBADO,DOMINGO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="14" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MASTER GENERAL.xlsx
+++ b/MASTER GENERAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruposifu-my.sharepoint.com/personal/acoscolin_gruposifu_com/Documents/Escritorio/INFORMER SIFU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="718" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383F36CD-C323-4902-A6AC-C0EE720A2B23}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="14_{8D315B72-AB6C-4238-A812-AFCD1D3E4CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B053175A-6DE4-499F-B466-D263DF83C183}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{493A6C3D-008D-4F70-9269-E0BD79E90925}"/>
   </bookViews>
   <sheets>
     <sheet name="SEGUIMIENTO" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="541">
   <si>
     <t>SVO08017-P1-C018</t>
   </si>
@@ -392,9 +392,6 @@
     <t>TIENDA 13 -  Cabrera de Mar</t>
   </si>
   <si>
-    <t>SVO08012-P2-C001</t>
-  </si>
-  <si>
     <t xml:space="preserve">TIENDA 130 -  Ramba marina </t>
   </si>
   <si>
@@ -537,9 +534,6 @@
   </si>
   <si>
     <t>SVO01045-P1-C018</t>
-  </si>
-  <si>
-    <t>SVO01045-P2-C001</t>
   </si>
   <si>
     <t>PROY017628-P1</t>
@@ -1666,6 +1660,9 @@
   </si>
   <si>
     <t>L A V DE 6:30 A 9:30h</t>
+  </si>
+  <si>
+    <t>SVO08012-P1-C001</t>
   </si>
 </sst>
 </file>
@@ -3315,8 +3312,8 @@
   <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M57" sqref="A1:M57"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,13 +3338,13 @@
   <sheetData>
     <row r="1" spans="1:31" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>7</v>
@@ -3359,31 +3356,31 @@
         <v>9</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>409</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -3404,109 +3401,109 @@
     </row>
     <row r="2" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="4"/>
       <c r="I2" s="36"/>
       <c r="J2" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K2" s="55"/>
       <c r="L2" s="56">
         <v>44256</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N2" s="55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="4"/>
       <c r="I3" s="36"/>
       <c r="J3" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L3" s="56">
         <v>44256</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N3" s="55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>537</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L4" s="56"/>
       <c r="M4" s="14"/>
@@ -3515,58 +3512,58 @@
     </row>
     <row r="5" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K5" s="55"/>
       <c r="L5" s="56">
         <v>46360</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>17</v>
@@ -3575,35 +3572,35 @@
       <c r="H6" s="4"/>
       <c r="I6" s="36"/>
       <c r="J6" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K6" s="55"/>
       <c r="L6" s="56">
         <v>46286</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N6" s="55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>70</v>
@@ -3612,117 +3609,117 @@
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L7" s="56">
         <v>46399</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="4"/>
       <c r="I8" s="18"/>
       <c r="J8" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L8" s="56">
         <v>44256</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="56">
         <v>46192</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>66</v>
@@ -3731,109 +3728,109 @@
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="73">
         <v>46073</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="56">
         <v>46325</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>127</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="56">
         <v>46395</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>24</v>
@@ -3842,37 +3839,37 @@
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L13" s="56">
         <v>45238</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>56</v>
@@ -3881,76 +3878,76 @@
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="56">
         <v>45645</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="56">
         <v>46360</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N15" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>90</v>
@@ -3959,37 +3956,37 @@
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L16" s="56">
         <v>45698</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>53</v>
@@ -3998,78 +3995,78 @@
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="71">
         <v>46190</v>
       </c>
       <c r="M17" s="72" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L18" s="56">
         <v>46080</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="62" t="s">
         <v>63</v>
@@ -4078,113 +4075,113 @@
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L19" s="56">
         <v>46261</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L20" s="73">
         <v>45446</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="73">
         <v>46424</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>113</v>
@@ -4193,76 +4190,76 @@
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="56">
         <v>46317</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="4"/>
       <c r="I23" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L23" s="56">
         <v>46372</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" s="62" t="s">
         <v>17</v>
@@ -4271,37 +4268,37 @@
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L24" s="56">
         <v>46286</v>
       </c>
       <c r="M24" s="55" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N24" s="55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="5" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="62" t="s">
         <v>13</v>
@@ -4310,72 +4307,72 @@
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="56">
         <v>46415</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="4"/>
       <c r="I26" s="14"/>
       <c r="J26" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K26" s="54"/>
       <c r="L26" s="56">
         <v>46140</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>109</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>110</v>
@@ -4384,193 +4381,193 @@
       <c r="H27" s="4"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="73">
         <v>46175</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L28" s="56">
         <v>46136</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L29" s="56">
         <v>46339</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="56">
         <v>46268</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>117</v>
+        <v>540</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="56">
         <v>46014</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="5" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>46</v>
@@ -4579,74 +4576,74 @@
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L32" s="73">
         <v>46119</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="56">
         <v>46189</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>107</v>
@@ -4655,37 +4652,37 @@
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L34" s="56">
         <v>46399</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>60</v>
@@ -4695,38 +4692,38 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="56">
         <v>46420</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>98</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>99</v>
@@ -4737,35 +4734,35 @@
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="73">
         <v>46170</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>77</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>78</v>
@@ -4774,72 +4771,72 @@
       <c r="H37" s="4"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K37" s="65"/>
       <c r="L37" s="56">
         <v>46213</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="4"/>
       <c r="I38" s="7"/>
       <c r="J38" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="56">
         <v>46335</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>102</v>
@@ -4848,35 +4845,35 @@
       <c r="H39" s="4"/>
       <c r="I39" s="14"/>
       <c r="J39" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="56">
         <v>46284</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>50</v>
@@ -4887,7 +4884,7 @@
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K40" s="14"/>
       <c r="L40" s="70">
@@ -4899,62 +4896,62 @@
     </row>
     <row r="41" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K41" s="55" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L41" s="56">
         <v>46418</v>
       </c>
       <c r="M41" s="55" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N41" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>86</v>
@@ -4963,35 +4960,35 @@
       <c r="H42" s="67"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="56">
         <v>46316</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>92</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>93</v>
@@ -5000,35 +4997,35 @@
       <c r="H43" s="4"/>
       <c r="I43" s="14"/>
       <c r="J43" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="56">
         <v>46153</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>85</v>
@@ -5037,37 +5034,37 @@
       <c r="H44" s="4"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L44" s="56">
         <v>45157</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>81</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>82</v>
@@ -5076,35 +5073,35 @@
       <c r="H45" s="4"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="56">
         <v>46351</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>35</v>
@@ -5113,115 +5110,115 @@
       <c r="H46" s="4"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="56">
         <v>44256</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="5" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="56">
         <v>46258</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="5" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="D48" s="23" t="s">
+      <c r="E48" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L48" s="56">
         <v>44256</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N48" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="5" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>40</v>
@@ -5230,35 +5227,35 @@
       <c r="H49" s="4"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="73">
         <v>46200</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>75</v>
@@ -5267,35 +5264,35 @@
       <c r="H50" s="4"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="73">
         <v>46176</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>37</v>
@@ -5304,35 +5301,35 @@
       <c r="H51" s="4"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="56">
         <v>46283</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>95</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>96</v>
@@ -5341,181 +5338,181 @@
       <c r="H52" s="4"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L52" s="56">
         <v>46134</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="73">
         <v>46163</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N53" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O53" s="7"/>
     </row>
-    <row r="54" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B54" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D54" s="61" t="s">
         <v>79</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="29"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="56">
         <v>46414</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N54" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O54" s="7"/>
     </row>
-    <row r="55" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>103</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D55" s="60" t="s">
         <v>104</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L55" s="56"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
       <c r="O55" s="7"/>
     </row>
-    <row r="56" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D56" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L56" s="56"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
       <c r="O56" s="7"/>
     </row>
-    <row r="57" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B57" s="59" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D57" s="60" t="s">
         <v>68</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="64"/>
@@ -5530,28 +5527,28 @@
     </row>
     <row r="58" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G58" s="36"/>
       <c r="H58" s="4"/>
       <c r="I58" s="36"/>
       <c r="J58" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K58" s="55"/>
       <c r="L58" s="56"/>
@@ -5559,33 +5556,33 @@
       <c r="N58" s="55"/>
       <c r="O58" s="7"/>
     </row>
-    <row r="59" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G59" s="66"/>
       <c r="H59" s="76"/>
       <c r="I59" s="76"/>
       <c r="J59" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L59" s="56">
         <v>46102</v>
@@ -5596,32 +5593,32 @@
     </row>
     <row r="60" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E60" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F60" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="87" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K60" s="55"/>
       <c r="L60" s="56">
@@ -5629,34 +5626,34 @@
       </c>
       <c r="M60" s="55"/>
       <c r="N60" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E61" s="84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G61" s="63"/>
       <c r="H61" s="4"/>
       <c r="I61" s="63"/>
       <c r="J61" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K61" s="55"/>
       <c r="L61" s="56"/>
@@ -5666,28 +5663,28 @@
     </row>
     <row r="62" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G62" s="36"/>
       <c r="H62" s="4"/>
       <c r="I62" s="36"/>
       <c r="J62" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K62" s="55"/>
       <c r="L62" s="56"/>
@@ -5697,31 +5694,31 @@
     </row>
     <row r="63" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G63" s="36"/>
       <c r="H63" s="4"/>
       <c r="I63" s="36"/>
       <c r="J63" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L63" s="56"/>
       <c r="M63" s="55"/>
@@ -5730,29 +5727,29 @@
     </row>
     <row r="64" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G64" s="36"/>
       <c r="H64" s="4"/>
       <c r="I64" s="36"/>
       <c r="J64" s="7"/>
       <c r="K64" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L64" s="56"/>
       <c r="M64" s="55"/>
@@ -5761,31 +5758,31 @@
     </row>
     <row r="65" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G65" s="78"/>
       <c r="H65" s="67"/>
       <c r="I65" s="36"/>
       <c r="J65" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L65" s="56"/>
       <c r="M65" s="55"/>
@@ -5794,31 +5791,31 @@
     </row>
     <row r="66" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G66" s="36"/>
       <c r="H66" s="4"/>
       <c r="I66" s="78"/>
       <c r="J66" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L66" s="56"/>
       <c r="M66" s="55"/>
@@ -5827,31 +5824,31 @@
     </row>
     <row r="67" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G67" s="36"/>
       <c r="H67" s="4"/>
       <c r="I67" s="78"/>
       <c r="J67" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L67" s="56"/>
       <c r="M67" s="55"/>
@@ -5860,31 +5857,31 @@
     </row>
     <row r="68" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G68" s="36"/>
       <c r="H68" s="4"/>
       <c r="I68" s="36"/>
       <c r="J68" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L68" s="56"/>
       <c r="M68" s="55"/>
@@ -5893,31 +5890,31 @@
     </row>
     <row r="69" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G69" s="36"/>
       <c r="H69" s="4"/>
       <c r="I69" s="36"/>
       <c r="J69" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L69" s="56"/>
       <c r="M69" s="55"/>
@@ -5926,29 +5923,29 @@
     </row>
     <row r="70" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D70" s="30"/>
       <c r="E70" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G70" s="36"/>
       <c r="H70" s="4"/>
       <c r="I70" s="36"/>
       <c r="J70" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L70" s="56"/>
       <c r="M70" s="55"/>
@@ -5957,28 +5954,28 @@
     </row>
     <row r="71" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G71" s="36"/>
       <c r="H71" s="4"/>
       <c r="I71" s="36"/>
       <c r="J71" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K71" s="55"/>
       <c r="L71" s="56"/>
@@ -5988,72 +5985,72 @@
     </row>
     <row r="72" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G72" s="36"/>
       <c r="H72" s="4"/>
       <c r="I72" s="36"/>
       <c r="J72" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K72" s="55"/>
       <c r="L72" s="56">
         <v>45540</v>
       </c>
       <c r="M72" s="55" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N72" s="55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O72" s="7"/>
     </row>
     <row r="73" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E73" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="G73" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F73" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L73" s="56"/>
       <c r="M73" s="55"/>
@@ -6062,28 +6059,28 @@
     </row>
     <row r="74" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G74" s="36"/>
       <c r="H74" s="4"/>
       <c r="I74" s="36"/>
       <c r="J74" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K74" s="55"/>
       <c r="L74" s="56"/>
@@ -6093,28 +6090,28 @@
     </row>
     <row r="75" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="4"/>
       <c r="I75" s="36"/>
       <c r="J75" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K75" s="55"/>
       <c r="L75" s="56"/>
@@ -6124,67 +6121,67 @@
     </row>
     <row r="76" spans="1:15" s="5" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G76" s="36"/>
       <c r="H76" s="4"/>
       <c r="I76" s="36"/>
       <c r="J76" s="82" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K76" s="55" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L76" s="56">
         <v>46305</v>
       </c>
       <c r="M76" s="55" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N76" s="55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O76" s="7"/>
     </row>
     <row r="77" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G77" s="36"/>
       <c r="H77" s="4"/>
       <c r="I77" s="36"/>
       <c r="J77" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K77" s="55"/>
       <c r="L77" s="56"/>
@@ -6194,28 +6191,28 @@
     </row>
     <row r="78" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="4"/>
       <c r="I78" s="36"/>
       <c r="J78" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K78" s="55"/>
       <c r="L78" s="56"/>
@@ -6225,28 +6222,28 @@
     </row>
     <row r="79" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G79" s="36"/>
       <c r="H79" s="4"/>
       <c r="I79" s="36"/>
       <c r="J79" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K79" s="55"/>
       <c r="L79" s="56"/>
@@ -6256,31 +6253,31 @@
     </row>
     <row r="80" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G80" s="36"/>
       <c r="H80" s="4"/>
       <c r="I80" s="36"/>
       <c r="J80" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L80" s="56"/>
       <c r="M80" s="55"/>
@@ -6289,28 +6286,28 @@
     </row>
     <row r="81" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G81" s="36"/>
       <c r="H81" s="4"/>
       <c r="I81" s="36"/>
       <c r="J81" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K81" s="55"/>
       <c r="L81" s="56"/>
@@ -6320,28 +6317,28 @@
     </row>
     <row r="82" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B82" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>388</v>
-      </c>
       <c r="E82" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G82" s="36"/>
       <c r="H82" s="79"/>
       <c r="I82" s="36"/>
       <c r="J82" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K82" s="55"/>
       <c r="L82" s="56"/>
@@ -6351,71 +6348,71 @@
     </row>
     <row r="83" spans="1:15" s="5" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D83" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F83" s="52" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="88" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L83" s="56" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M83" s="55" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N83" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O83" s="7"/>
     </row>
     <row r="84" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G84" s="36"/>
       <c r="H84" s="4"/>
       <c r="I84" s="78"/>
       <c r="J84" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K84" s="55"/>
       <c r="L84" s="56"/>
@@ -6425,69 +6422,69 @@
     </row>
     <row r="85" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E85" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="G85" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F85" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="40" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L85" s="56"/>
       <c r="M85" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N85" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O85" s="7"/>
     </row>
     <row r="86" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G86" s="36"/>
       <c r="H86" s="4"/>
       <c r="I86" s="36"/>
       <c r="J86" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K86" s="55"/>
       <c r="L86" s="56"/>
@@ -6497,28 +6494,28 @@
     </row>
     <row r="87" spans="1:15" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G87" s="36"/>
       <c r="H87" s="4"/>
       <c r="I87" s="36"/>
       <c r="J87" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K87" s="55"/>
       <c r="L87" s="56"/>
@@ -6528,28 +6525,28 @@
     </row>
     <row r="88" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G88" s="36"/>
       <c r="H88" s="4"/>
       <c r="I88" s="36"/>
       <c r="J88" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K88" s="55"/>
       <c r="L88" s="56"/>
@@ -6559,28 +6556,28 @@
     </row>
     <row r="89" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F89" s="77" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G89" s="36"/>
       <c r="H89" s="4"/>
       <c r="I89" s="80"/>
       <c r="J89" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K89" s="55"/>
       <c r="L89" s="56"/>
@@ -6590,32 +6587,32 @@
     </row>
     <row r="90" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E90" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G90" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F90" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="G90" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="75" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J90" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K90" s="55"/>
       <c r="L90" s="56"/>
@@ -6625,28 +6622,28 @@
     </row>
     <row r="91" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F91" s="53" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G91" s="36"/>
       <c r="H91" s="4"/>
       <c r="I91" s="36"/>
       <c r="J91" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K91" s="55"/>
       <c r="L91" s="56"/>
@@ -6656,31 +6653,31 @@
     </row>
     <row r="92" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F92" s="53" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G92" s="36"/>
       <c r="H92" s="4"/>
       <c r="I92" s="36"/>
       <c r="J92" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K92" s="55" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L92" s="56"/>
       <c r="M92" s="55"/>
@@ -6689,67 +6686,67 @@
     </row>
     <row r="93" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F93" s="53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G93" s="36"/>
       <c r="H93" s="4"/>
       <c r="I93" s="36"/>
       <c r="J93" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K93" s="55" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L93" s="56">
         <v>46305</v>
       </c>
       <c r="M93" s="55" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N93" s="55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O93" s="7"/>
     </row>
     <row r="94" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F94" s="53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G94" s="36"/>
       <c r="H94" s="4"/>
       <c r="I94" s="36"/>
       <c r="J94" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K94" s="55"/>
       <c r="L94" s="56"/>
@@ -6759,28 +6756,28 @@
     </row>
     <row r="95" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F95" s="53" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G95" s="36"/>
       <c r="H95" s="4"/>
       <c r="I95" s="36"/>
       <c r="J95" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K95" s="55"/>
       <c r="L95" s="56"/>
@@ -6790,28 +6787,28 @@
     </row>
     <row r="96" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F96" s="53" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G96" s="36"/>
       <c r="H96" s="4"/>
       <c r="I96" s="36"/>
       <c r="J96" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K96" s="55"/>
       <c r="L96" s="56"/>
@@ -6821,32 +6818,32 @@
     </row>
     <row r="97" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E97" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="G97" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F97" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="40" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K97" s="55"/>
       <c r="L97" s="56"/>
@@ -6856,115 +6853,115 @@
     </row>
     <row r="98" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E98" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="G98" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F98" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="40" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L98" s="56">
         <v>44256</v>
       </c>
       <c r="M98" s="55" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N98" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O98" s="7"/>
     </row>
     <row r="99" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E99" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="G99" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F99" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K99" s="55"/>
       <c r="L99" s="56">
         <v>46394</v>
       </c>
       <c r="M99" s="55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N99" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O99" s="7"/>
     </row>
     <row r="100" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F100" s="53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G100" s="36"/>
       <c r="H100" s="4"/>
       <c r="I100" s="36"/>
       <c r="J100" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L100" s="56"/>
       <c r="M100" s="55"/>
@@ -6973,28 +6970,28 @@
     </row>
     <row r="101" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" s="53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G101" s="36"/>
       <c r="H101" s="4"/>
       <c r="I101" s="80"/>
       <c r="J101" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K101" s="55"/>
       <c r="L101" s="56"/>
@@ -7004,28 +7001,28 @@
     </row>
     <row r="102" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F102" s="53" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="4"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K102" s="55"/>
       <c r="L102" s="56"/>
@@ -7035,32 +7032,32 @@
     </row>
     <row r="103" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E103" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F103" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="G103" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F103" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K103" s="55"/>
       <c r="L103" s="56"/>
@@ -7070,28 +7067,28 @@
     </row>
     <row r="104" spans="1:15" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F104" s="53" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G104" s="36"/>
       <c r="H104" s="4"/>
       <c r="I104" s="36"/>
       <c r="J104" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K104" s="55"/>
       <c r="L104" s="56"/>
@@ -7101,28 +7098,28 @@
     </row>
     <row r="105" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F105" s="53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G105" s="36"/>
       <c r="H105" s="4"/>
       <c r="I105" s="36"/>
       <c r="J105" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K105" s="55"/>
       <c r="L105" s="56"/>
@@ -7132,28 +7129,28 @@
     </row>
     <row r="106" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F106" s="53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G106" s="36"/>
       <c r="H106" s="4"/>
       <c r="I106" s="36"/>
       <c r="J106" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K106" s="55"/>
       <c r="L106" s="56"/>
@@ -7163,37 +7160,37 @@
     </row>
     <row r="107" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F107" s="53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I107" s="85" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K107" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L107" s="56"/>
       <c r="M107" s="55"/>
@@ -7202,35 +7199,35 @@
     </row>
     <row r="108" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E108" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="G108" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F108" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="40" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L108" s="56"/>
       <c r="M108" s="83"/>
@@ -7239,28 +7236,28 @@
     </row>
     <row r="109" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F109" s="53" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G109" s="63"/>
       <c r="H109" s="4"/>
       <c r="I109" s="81"/>
       <c r="J109" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K109" s="55"/>
       <c r="L109" s="56"/>
@@ -7270,28 +7267,28 @@
     </row>
     <row r="110" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F110" s="53" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G110" s="36"/>
       <c r="H110" s="4"/>
       <c r="I110" s="36"/>
       <c r="J110" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K110" s="55"/>
       <c r="L110" s="56"/>
@@ -7301,32 +7298,32 @@
     </row>
     <row r="111" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F111" s="53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="85" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K111" s="55"/>
       <c r="L111" s="56">
@@ -7338,19 +7335,19 @@
     </row>
     <row r="112" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>53</v>
@@ -7359,40 +7356,40 @@
       <c r="H112" s="4"/>
       <c r="I112" s="63"/>
       <c r="J112" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K112" s="55"/>
       <c r="L112" s="56"/>
       <c r="M112" s="55"/>
       <c r="N112" s="55"/>
       <c r="O112" s="68" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="19.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="4"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K113" s="55"/>
       <c r="L113" s="56"/>
@@ -7414,9 +7411,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AE113" xr:uid="{F6A49005-8769-4BF6-A096-629AA7759008}">
-    <filterColumn colId="0">
+    <filterColumn colId="5">
       <filters>
-        <filter val="ALDI"/>
+        <filter val="JUANA CORTES AMADOR"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AE111">
@@ -7873,6 +7870,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>